--- a/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.966533769419358</v>
+        <v>0.9665337694193594</v>
       </c>
       <c r="D2">
-        <v>0.989226363616837</v>
+        <v>0.9892263636168384</v>
       </c>
       <c r="E2">
-        <v>0.9749544109989989</v>
+        <v>0.9749544109990004</v>
       </c>
       <c r="F2">
-        <v>0.9415208578416154</v>
+        <v>0.9415208578416172</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028959263322114</v>
+        <v>1.028959263322115</v>
       </c>
       <c r="J2">
-        <v>0.9897636983087691</v>
+        <v>0.9897636983087703</v>
       </c>
       <c r="K2">
-        <v>1.000837861268647</v>
+        <v>1.000837861268648</v>
       </c>
       <c r="L2">
-        <v>0.986774061300818</v>
+        <v>0.9867740613008195</v>
       </c>
       <c r="M2">
-        <v>0.9538598465862914</v>
+        <v>0.9538598465862932</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9798608017444622</v>
+        <v>0.9798608017444627</v>
       </c>
       <c r="D3">
-        <v>0.9995749917535109</v>
+        <v>0.9995749917535112</v>
       </c>
       <c r="E3">
-        <v>0.9876778546460375</v>
+        <v>0.9876778546460382</v>
       </c>
       <c r="F3">
-        <v>0.9581740661291964</v>
+        <v>0.9581740661291973</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034185437724606</v>
+        <v>1.034185437724607</v>
       </c>
       <c r="J3">
-        <v>1.000915955175318</v>
+        <v>1.000915955175319</v>
       </c>
       <c r="K3">
         <v>1.010213313529404</v>
       </c>
       <c r="L3">
-        <v>0.9984708659188753</v>
+        <v>0.9984708659188758</v>
       </c>
       <c r="M3">
-        <v>0.9693716493381679</v>
+        <v>0.9693716493381688</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9879803186601883</v>
+        <v>0.9879803186601896</v>
       </c>
       <c r="D4">
-        <v>1.005877722851763</v>
+        <v>1.005877722851764</v>
       </c>
       <c r="E4">
-        <v>0.9954355666164371</v>
+        <v>0.9954355666164387</v>
       </c>
       <c r="F4">
-        <v>0.968306985062367</v>
+        <v>0.9683069850623686</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037345677119176</v>
+        <v>1.037345677119177</v>
       </c>
       <c r="J4">
-        <v>1.007696567968267</v>
+        <v>1.007696567968268</v>
       </c>
       <c r="K4">
-        <v>1.015905722804794</v>
+        <v>1.015905722804795</v>
       </c>
       <c r="L4">
-        <v>1.00558939429858</v>
+        <v>1.005589394298582</v>
       </c>
       <c r="M4">
-        <v>0.9788035903617766</v>
+        <v>0.9788035903617779</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9912862367670747</v>
+        <v>0.9912862367670756</v>
       </c>
       <c r="D5">
         <v>1.008443125370164</v>
       </c>
       <c r="E5">
-        <v>0.9985954544304969</v>
+        <v>0.9985954544304975</v>
       </c>
       <c r="F5">
-        <v>0.9724306396291629</v>
+        <v>0.9724306396291635</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0386266127454</v>
+        <v>1.038626612745401</v>
       </c>
       <c r="J5">
-        <v>1.010453988997297</v>
+        <v>1.010453988997298</v>
       </c>
       <c r="K5">
         <v>1.018218634812712</v>
       </c>
       <c r="L5">
-        <v>1.00848583409484</v>
+        <v>1.008485834094841</v>
       </c>
       <c r="M5">
-        <v>0.9826403156019491</v>
+        <v>0.9826403156019496</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9918353464817269</v>
+        <v>0.9918353464817254</v>
       </c>
       <c r="D6">
-        <v>1.008869181985031</v>
+        <v>1.00886918198503</v>
       </c>
       <c r="E6">
-        <v>0.9991203803684874</v>
+        <v>0.9991203803684865</v>
       </c>
       <c r="F6">
-        <v>0.9731154827896551</v>
+        <v>0.9731154827896534</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038839032870193</v>
+        <v>1.038839032870192</v>
       </c>
       <c r="J6">
-        <v>1.010911796039253</v>
+        <v>1.010911796039252</v>
       </c>
       <c r="K6">
-        <v>1.018602522617681</v>
+        <v>1.01860252261768</v>
       </c>
       <c r="L6">
-        <v>1.008966815402033</v>
+        <v>1.008966815402032</v>
       </c>
       <c r="M6">
-        <v>0.9832774058664773</v>
+        <v>0.9832774058664757</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9880248994582933</v>
+        <v>0.9880248994582904</v>
       </c>
       <c r="D7">
-        <v>1.005912321197704</v>
+        <v>1.005912321197701</v>
       </c>
       <c r="E7">
-        <v>0.9954781732475306</v>
+        <v>0.9954781732475274</v>
       </c>
       <c r="F7">
-        <v>0.9683625999519319</v>
+        <v>0.968362599951929</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037362973807509</v>
+        <v>1.037362973807507</v>
       </c>
       <c r="J7">
-        <v>1.007733765566644</v>
+        <v>1.007733765566641</v>
       </c>
       <c r="K7">
-        <v>1.015936931953673</v>
+        <v>1.01593693195367</v>
       </c>
       <c r="L7">
-        <v>1.005628460926648</v>
+        <v>1.005628460926644</v>
       </c>
       <c r="M7">
-        <v>0.9788553422381162</v>
+        <v>0.9788553422381133</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9711507908809622</v>
+        <v>0.9711507908809606</v>
       </c>
       <c r="D8">
-        <v>0.992811829300884</v>
+        <v>0.9928118293008829</v>
       </c>
       <c r="E8">
-        <v>0.9793609495594819</v>
+        <v>0.9793609495594806</v>
       </c>
       <c r="F8">
-        <v>0.9472937934929246</v>
+        <v>0.9472937934929234</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03077490903315</v>
+        <v>1.030774909033149</v>
       </c>
       <c r="J8">
-        <v>0.9936302798742296</v>
+        <v>0.9936302798742281</v>
       </c>
       <c r="K8">
-        <v>1.004090057423682</v>
+        <v>1.004090057423681</v>
       </c>
       <c r="L8">
-        <v>0.9908279429856363</v>
+        <v>0.9908279429856349</v>
       </c>
       <c r="M8">
-        <v>0.9592384241861892</v>
+        <v>0.959238424186188</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9367885847286899</v>
+        <v>0.9367885847286905</v>
       </c>
       <c r="D9">
-        <v>0.9661325449929302</v>
+        <v>0.966132544992931</v>
       </c>
       <c r="E9">
-        <v>0.9466007520665551</v>
+        <v>0.946600752066556</v>
       </c>
       <c r="F9">
-        <v>0.90420036678383</v>
+        <v>0.9042003667838314</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017155291649356</v>
+        <v>1.017155291649357</v>
       </c>
       <c r="J9">
-        <v>0.9647894861020411</v>
+        <v>0.9647894861020418</v>
       </c>
       <c r="K9">
-        <v>0.9798000854831331</v>
+        <v>0.9798000854831337</v>
       </c>
       <c r="L9">
-        <v>0.9606239891883093</v>
+        <v>0.9606239891883102</v>
       </c>
       <c r="M9">
-        <v>0.9190657956070926</v>
+        <v>0.9190657956070938</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9092431106557398</v>
+        <v>0.9092431106557401</v>
       </c>
       <c r="D10">
-        <v>0.9447798534344876</v>
+        <v>0.9447798534344874</v>
       </c>
       <c r="E10">
-        <v>0.9204002799622851</v>
+        <v>0.9204002799622849</v>
       </c>
       <c r="F10">
-        <v>0.8693563396280779</v>
+        <v>0.8693563396280781</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>0.941585500738345</v>
       </c>
       <c r="K10">
-        <v>0.9602232260800648</v>
+        <v>0.9602232260800649</v>
       </c>
       <c r="L10">
-        <v>0.9363725822706418</v>
+        <v>0.9363725822706417</v>
       </c>
       <c r="M10">
-        <v>0.8865666132143877</v>
+        <v>0.8865666132143878</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8956462226086953</v>
+        <v>0.8956462226086943</v>
       </c>
       <c r="D11">
-        <v>0.934260550344122</v>
+        <v>0.9342605503441211</v>
       </c>
       <c r="E11">
-        <v>0.9074880679870453</v>
+        <v>0.9074880679870443</v>
       </c>
       <c r="F11">
-        <v>0.8520184898330413</v>
+        <v>0.8520184898330404</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.000613109780116</v>
+        <v>1.000613109780115</v>
       </c>
       <c r="J11">
-        <v>0.9301114564960665</v>
+        <v>0.9301114564960657</v>
       </c>
       <c r="K11">
-        <v>0.9505386689250798</v>
+        <v>0.950538668925079</v>
       </c>
       <c r="L11">
-        <v>0.9243943530098007</v>
+        <v>0.9243943530097998</v>
       </c>
       <c r="M11">
-        <v>0.870399015343356</v>
+        <v>0.870399015343355</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8902651139028855</v>
+        <v>0.8902651139028824</v>
       </c>
       <c r="D12">
-        <v>0.9301021867805398</v>
+        <v>0.9301021867805374</v>
       </c>
       <c r="E12">
-        <v>0.9023818202120585</v>
+        <v>0.9023818202120556</v>
       </c>
       <c r="F12">
-        <v>0.8451264839790752</v>
+        <v>0.8451264839790716</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9984372468264737</v>
+        <v>0.9984372468264723</v>
       </c>
       <c r="J12">
-        <v>0.9255674554956571</v>
+        <v>0.9255674554956541</v>
       </c>
       <c r="K12">
-        <v>0.946703317333086</v>
+        <v>0.9467033173330834</v>
       </c>
       <c r="L12">
-        <v>0.9196529963263893</v>
+        <v>0.9196529963263863</v>
       </c>
       <c r="M12">
-        <v>0.8639738523798446</v>
+        <v>0.8639738523798409</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8914360862949351</v>
+        <v>0.8914360862949378</v>
       </c>
       <c r="D13">
-        <v>0.9310068329941562</v>
+        <v>0.9310068329941584</v>
       </c>
       <c r="E13">
-        <v>0.9034927907504097</v>
+        <v>0.9034927907504126</v>
       </c>
       <c r="F13">
-        <v>0.8466278098095761</v>
+        <v>0.8466278098095796</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9989109134473595</v>
+        <v>0.9989109134473605</v>
       </c>
       <c r="J13">
-        <v>0.9265564024295255</v>
+        <v>0.926556402429528</v>
       </c>
       <c r="K13">
-        <v>0.9475380242156499</v>
+        <v>0.9475380242156523</v>
       </c>
       <c r="L13">
-        <v>0.9206847866108574</v>
+        <v>0.9206847866108602</v>
       </c>
       <c r="M13">
-        <v>0.8653733840981558</v>
+        <v>0.865373384098159</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8952087739175588</v>
+        <v>0.8952087739175615</v>
       </c>
       <c r="D14">
-        <v>0.9339223960031788</v>
+        <v>0.9339223960031808</v>
       </c>
       <c r="E14">
-        <v>0.907072880554492</v>
+        <v>0.9070728805544944</v>
       </c>
       <c r="F14">
-        <v>0.8514588939460369</v>
+        <v>0.8514588939460397</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.000436308023067</v>
+        <v>1.000436308023068</v>
       </c>
       <c r="J14">
-        <v>0.9297421196726553</v>
+        <v>0.9297421196726577</v>
       </c>
       <c r="K14">
-        <v>0.9502269274921934</v>
+        <v>0.9502269274921955</v>
       </c>
       <c r="L14">
-        <v>0.9240089271502366</v>
+        <v>0.9240089271502391</v>
       </c>
       <c r="M14">
-        <v>0.8698772831437873</v>
+        <v>0.8698772831437899</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8974863603629619</v>
+        <v>0.8974863603629598</v>
       </c>
       <c r="D15">
-        <v>0.9356832051910375</v>
+        <v>0.9356832051910356</v>
       </c>
       <c r="E15">
-        <v>0.9092347236726392</v>
+        <v>0.9092347236726372</v>
       </c>
       <c r="F15">
-        <v>0.8543711634404417</v>
+        <v>0.8543711634404397</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.001356664771216</v>
+        <v>1.001356664771214</v>
       </c>
       <c r="J15">
-        <v>0.9316649593772601</v>
+        <v>0.931664959377258</v>
       </c>
       <c r="K15">
-        <v>0.9518499172018791</v>
+        <v>0.9518499172018772</v>
       </c>
       <c r="L15">
-        <v>0.9260156234222452</v>
+        <v>0.9260156234222433</v>
       </c>
       <c r="M15">
-        <v>0.8725925749437531</v>
+        <v>0.8725925749437513</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9101043559794121</v>
+        <v>0.9101043559794093</v>
       </c>
       <c r="D16">
-        <v>0.9454466912554135</v>
+        <v>0.945446691255411</v>
       </c>
       <c r="E16">
-        <v>0.9212186262097185</v>
+        <v>0.9212186262097154</v>
       </c>
       <c r="F16">
-        <v>0.8704511197335424</v>
+        <v>0.8704511197335389</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.006447379468458</v>
+        <v>1.006447379468456</v>
       </c>
       <c r="J16">
-        <v>0.9423118817357754</v>
+        <v>0.9423118817357725</v>
       </c>
       <c r="K16">
-        <v>0.960836281293044</v>
+        <v>0.9608362812930415</v>
       </c>
       <c r="L16">
-        <v>0.9371311724447713</v>
+        <v>0.9371311724447684</v>
       </c>
       <c r="M16">
-        <v>0.8875876466131244</v>
+        <v>0.8875876466131211</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9175269444910655</v>
+        <v>0.9175269444910621</v>
       </c>
       <c r="D17">
-        <v>0.9511961368847679</v>
+        <v>0.9511961368847651</v>
       </c>
       <c r="E17">
-        <v>0.9282737794524111</v>
+        <v>0.9282737794524076</v>
       </c>
       <c r="F17">
-        <v>0.8798709560943675</v>
+        <v>0.8798709560943635</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009434676058366</v>
+        <v>1.009434676058364</v>
       </c>
       <c r="J17">
-        <v>0.9485699874157554</v>
+        <v>0.9485699874157522</v>
       </c>
       <c r="K17">
-        <v>0.9661176361504166</v>
+        <v>0.9661176361504142</v>
       </c>
       <c r="L17">
-        <v>0.9436682670985685</v>
+        <v>0.9436682670985653</v>
       </c>
       <c r="M17">
-        <v>0.8963733860537598</v>
+        <v>0.8963733860537563</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.921702135005206</v>
+        <v>0.9217021350052035</v>
       </c>
       <c r="D18">
-        <v>0.9544319086097744</v>
+        <v>0.9544319086097722</v>
       </c>
       <c r="E18">
-        <v>0.9322440771896333</v>
+        <v>0.9322440771896312</v>
       </c>
       <c r="F18">
-        <v>0.885158038127326</v>
+        <v>0.8851580381273231</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011112296005116</v>
+        <v>1.011112296005115</v>
       </c>
       <c r="J18">
-        <v>0.9520883649756887</v>
+        <v>0.9520883649756864</v>
       </c>
       <c r="K18">
-        <v>0.9690864676181978</v>
+        <v>0.9690864676181957</v>
       </c>
       <c r="L18">
-        <v>0.9473446979510989</v>
+        <v>0.9473446979510967</v>
       </c>
       <c r="M18">
-        <v>0.901304790140206</v>
+        <v>0.9013047901402034</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9231014482257816</v>
+        <v>0.9231014482257808</v>
       </c>
       <c r="D19">
-        <v>0.9555166315631536</v>
+        <v>0.9555166315631528</v>
       </c>
       <c r="E19">
-        <v>0.933575006724664</v>
+        <v>0.933575006724663</v>
       </c>
       <c r="F19">
-        <v>0.8869282408086989</v>
+        <v>0.8869282408086978</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.011674078898982</v>
       </c>
       <c r="J19">
-        <v>0.9532672428282963</v>
+        <v>0.9532672428282957</v>
       </c>
       <c r="K19">
-        <v>0.970081131661608</v>
+        <v>0.9700811316616073</v>
       </c>
       <c r="L19">
-        <v>0.9485767322207003</v>
+        <v>0.9485767322206996</v>
       </c>
       <c r="M19">
-        <v>0.902955920556112</v>
+        <v>0.9029559205561108</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9167469870963666</v>
+        <v>0.9167469870963656</v>
       </c>
       <c r="D20">
-        <v>0.9505918019587445</v>
+        <v>0.9505918019587437</v>
       </c>
       <c r="E20">
-        <v>0.927532239817605</v>
+        <v>0.9275322398176041</v>
       </c>
       <c r="F20">
-        <v>0.8788823924345548</v>
+        <v>0.8788823924345536</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.009121058351867</v>
       </c>
       <c r="J20">
-        <v>0.9479125805834213</v>
+        <v>0.9479125805834204</v>
       </c>
       <c r="K20">
-        <v>0.9655628752981823</v>
+        <v>0.9655628752981816</v>
       </c>
       <c r="L20">
-        <v>0.9429814253137208</v>
+        <v>0.9429814253137199</v>
       </c>
       <c r="M20">
-        <v>0.8954513384349485</v>
+        <v>0.8954513384349476</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8941077876928279</v>
+        <v>0.8941077876928253</v>
       </c>
       <c r="D21">
-        <v>0.9330713996433264</v>
+        <v>0.9330713996433241</v>
       </c>
       <c r="E21">
-        <v>0.9060279872058149</v>
+        <v>0.9060279872058126</v>
       </c>
       <c r="F21">
-        <v>0.8500499596272874</v>
+        <v>0.850049959627284</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9999912616668226</v>
+        <v>0.9999912616668214</v>
       </c>
       <c r="J21">
-        <v>0.9288125116455335</v>
+        <v>0.9288125116455309</v>
       </c>
       <c r="K21">
-        <v>0.9494422870478008</v>
+        <v>0.9494422870477985</v>
       </c>
       <c r="L21">
-        <v>0.9230388613384136</v>
+        <v>0.9230388613384112</v>
       </c>
       <c r="M21">
-        <v>0.8685637120637603</v>
+        <v>0.8685637120637574</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8778837770614274</v>
+        <v>0.8778837770614282</v>
       </c>
       <c r="D22">
-        <v>0.9205458453202469</v>
+        <v>0.9205458453202476</v>
       </c>
       <c r="E22">
-        <v>0.890641446606365</v>
+        <v>0.8906414466063659</v>
       </c>
       <c r="F22">
-        <v>0.8291949040814374</v>
+        <v>0.8291949040814385</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9934234364164204</v>
+        <v>0.9934234364164207</v>
       </c>
       <c r="J22">
-        <v>0.9151064625471501</v>
+        <v>0.9151064625471506</v>
       </c>
       <c r="K22">
-        <v>0.9378746563107848</v>
+        <v>0.9378746563107856</v>
       </c>
       <c r="L22">
-        <v>0.908742426030527</v>
+        <v>0.9087424260305276</v>
       </c>
       <c r="M22">
-        <v>0.8491265335723657</v>
+        <v>0.8491265335723666</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8867124349118748</v>
+        <v>0.8867124349118726</v>
       </c>
       <c r="D23">
-        <v>0.9273583996942862</v>
+        <v>0.9273583996942849</v>
       </c>
       <c r="E23">
-        <v>0.8990118340435086</v>
+        <v>0.899011834043507</v>
       </c>
       <c r="F23">
-        <v>0.8405659957369849</v>
+        <v>0.8405659957369824</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9969995815260024</v>
+        <v>0.9969995815260017</v>
       </c>
       <c r="J23">
-        <v>0.9225665875163516</v>
+        <v>0.9225665875163498</v>
       </c>
       <c r="K23">
-        <v>0.9441705353007523</v>
+        <v>0.9441705353007508</v>
       </c>
       <c r="L23">
-        <v>0.916522489792326</v>
+        <v>0.9165224897923243</v>
       </c>
       <c r="M23">
-        <v>0.8597229489474569</v>
+        <v>0.8597229489474547</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1260,13 +1260,13 @@
         <v>0.9170998875814999</v>
       </c>
       <c r="D24">
-        <v>0.9508652347940331</v>
+        <v>0.950865234794033</v>
       </c>
       <c r="E24">
-        <v>0.9278677521949787</v>
+        <v>0.9278677521949789</v>
       </c>
       <c r="F24">
-        <v>0.8793297148161018</v>
+        <v>0.8793297148161013</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.009262966786786</v>
       </c>
       <c r="J24">
-        <v>0.9482100373175855</v>
+        <v>0.9482100373175856</v>
       </c>
       <c r="K24">
-        <v>0.9658138891368796</v>
+        <v>0.9658138891368795</v>
       </c>
       <c r="L24">
-        <v>0.9432921967176451</v>
+        <v>0.9432921967176452</v>
       </c>
       <c r="M24">
-        <v>0.8958685618598772</v>
+        <v>0.8958685618598766</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9463481907535982</v>
+        <v>0.9463481907535951</v>
       </c>
       <c r="D25">
-        <v>0.97355217214666</v>
+        <v>0.9735521721466575</v>
       </c>
       <c r="E25">
-        <v>0.9557063765195623</v>
+        <v>0.9557063765195594</v>
       </c>
       <c r="F25">
-        <v>0.9162228322142737</v>
+        <v>0.9162228322142704</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.020966814513294</v>
+        <v>1.020966814513292</v>
       </c>
       <c r="J25">
-        <v>0.9728266243611957</v>
+        <v>0.9728266243611927</v>
       </c>
       <c r="K25">
-        <v>0.9865754178712596</v>
+        <v>0.9865754178712571</v>
       </c>
       <c r="L25">
-        <v>0.9690335511479046</v>
+        <v>0.969033551147902</v>
       </c>
       <c r="M25">
-        <v>0.9302776301039589</v>
+        <v>0.9302776301039556</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9665337694193594</v>
+        <v>0.966533769419358</v>
       </c>
       <c r="D2">
-        <v>0.9892263636168384</v>
+        <v>0.989226363616837</v>
       </c>
       <c r="E2">
-        <v>0.9749544109990004</v>
+        <v>0.9749544109989989</v>
       </c>
       <c r="F2">
-        <v>0.9415208578416172</v>
+        <v>0.9415208578416154</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028959263322115</v>
+        <v>1.028959263322114</v>
       </c>
       <c r="J2">
-        <v>0.9897636983087703</v>
+        <v>0.9897636983087691</v>
       </c>
       <c r="K2">
-        <v>1.000837861268648</v>
+        <v>1.000837861268647</v>
       </c>
       <c r="L2">
-        <v>0.9867740613008195</v>
+        <v>0.986774061300818</v>
       </c>
       <c r="M2">
-        <v>0.9538598465862932</v>
+        <v>0.9538598465862914</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9798608017444627</v>
+        <v>0.9798608017444622</v>
       </c>
       <c r="D3">
-        <v>0.9995749917535112</v>
+        <v>0.9995749917535109</v>
       </c>
       <c r="E3">
-        <v>0.9876778546460382</v>
+        <v>0.9876778546460375</v>
       </c>
       <c r="F3">
-        <v>0.9581740661291973</v>
+        <v>0.9581740661291964</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034185437724607</v>
+        <v>1.034185437724606</v>
       </c>
       <c r="J3">
-        <v>1.000915955175319</v>
+        <v>1.000915955175318</v>
       </c>
       <c r="K3">
         <v>1.010213313529404</v>
       </c>
       <c r="L3">
-        <v>0.9984708659188758</v>
+        <v>0.9984708659188753</v>
       </c>
       <c r="M3">
-        <v>0.9693716493381688</v>
+        <v>0.9693716493381679</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9879803186601896</v>
+        <v>0.9879803186601883</v>
       </c>
       <c r="D4">
-        <v>1.005877722851764</v>
+        <v>1.005877722851763</v>
       </c>
       <c r="E4">
-        <v>0.9954355666164387</v>
+        <v>0.9954355666164371</v>
       </c>
       <c r="F4">
-        <v>0.9683069850623686</v>
+        <v>0.968306985062367</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037345677119177</v>
+        <v>1.037345677119176</v>
       </c>
       <c r="J4">
-        <v>1.007696567968268</v>
+        <v>1.007696567968267</v>
       </c>
       <c r="K4">
-        <v>1.015905722804795</v>
+        <v>1.015905722804794</v>
       </c>
       <c r="L4">
-        <v>1.005589394298582</v>
+        <v>1.00558939429858</v>
       </c>
       <c r="M4">
-        <v>0.9788035903617779</v>
+        <v>0.9788035903617766</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9912862367670756</v>
+        <v>0.9912862367670747</v>
       </c>
       <c r="D5">
         <v>1.008443125370164</v>
       </c>
       <c r="E5">
-        <v>0.9985954544304975</v>
+        <v>0.9985954544304969</v>
       </c>
       <c r="F5">
-        <v>0.9724306396291635</v>
+        <v>0.9724306396291629</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038626612745401</v>
+        <v>1.0386266127454</v>
       </c>
       <c r="J5">
-        <v>1.010453988997298</v>
+        <v>1.010453988997297</v>
       </c>
       <c r="K5">
         <v>1.018218634812712</v>
       </c>
       <c r="L5">
-        <v>1.008485834094841</v>
+        <v>1.00848583409484</v>
       </c>
       <c r="M5">
-        <v>0.9826403156019496</v>
+        <v>0.9826403156019491</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9918353464817254</v>
+        <v>0.9918353464817269</v>
       </c>
       <c r="D6">
-        <v>1.00886918198503</v>
+        <v>1.008869181985031</v>
       </c>
       <c r="E6">
-        <v>0.9991203803684865</v>
+        <v>0.9991203803684874</v>
       </c>
       <c r="F6">
-        <v>0.9731154827896534</v>
+        <v>0.9731154827896551</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038839032870192</v>
+        <v>1.038839032870193</v>
       </c>
       <c r="J6">
-        <v>1.010911796039252</v>
+        <v>1.010911796039253</v>
       </c>
       <c r="K6">
-        <v>1.01860252261768</v>
+        <v>1.018602522617681</v>
       </c>
       <c r="L6">
-        <v>1.008966815402032</v>
+        <v>1.008966815402033</v>
       </c>
       <c r="M6">
-        <v>0.9832774058664757</v>
+        <v>0.9832774058664773</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9880248994582904</v>
+        <v>0.9880248994582933</v>
       </c>
       <c r="D7">
-        <v>1.005912321197701</v>
+        <v>1.005912321197704</v>
       </c>
       <c r="E7">
-        <v>0.9954781732475274</v>
+        <v>0.9954781732475306</v>
       </c>
       <c r="F7">
-        <v>0.968362599951929</v>
+        <v>0.9683625999519319</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037362973807507</v>
+        <v>1.037362973807509</v>
       </c>
       <c r="J7">
-        <v>1.007733765566641</v>
+        <v>1.007733765566644</v>
       </c>
       <c r="K7">
-        <v>1.01593693195367</v>
+        <v>1.015936931953673</v>
       </c>
       <c r="L7">
-        <v>1.005628460926644</v>
+        <v>1.005628460926648</v>
       </c>
       <c r="M7">
-        <v>0.9788553422381133</v>
+        <v>0.9788553422381162</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9711507908809606</v>
+        <v>0.9711507908809622</v>
       </c>
       <c r="D8">
-        <v>0.9928118293008829</v>
+        <v>0.992811829300884</v>
       </c>
       <c r="E8">
-        <v>0.9793609495594806</v>
+        <v>0.9793609495594819</v>
       </c>
       <c r="F8">
-        <v>0.9472937934929234</v>
+        <v>0.9472937934929246</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030774909033149</v>
+        <v>1.03077490903315</v>
       </c>
       <c r="J8">
-        <v>0.9936302798742281</v>
+        <v>0.9936302798742296</v>
       </c>
       <c r="K8">
-        <v>1.004090057423681</v>
+        <v>1.004090057423682</v>
       </c>
       <c r="L8">
-        <v>0.9908279429856349</v>
+        <v>0.9908279429856363</v>
       </c>
       <c r="M8">
-        <v>0.959238424186188</v>
+        <v>0.9592384241861892</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9367885847286905</v>
+        <v>0.9367885847286899</v>
       </c>
       <c r="D9">
-        <v>0.966132544992931</v>
+        <v>0.9661325449929302</v>
       </c>
       <c r="E9">
-        <v>0.946600752066556</v>
+        <v>0.9466007520665551</v>
       </c>
       <c r="F9">
-        <v>0.9042003667838314</v>
+        <v>0.90420036678383</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017155291649357</v>
+        <v>1.017155291649356</v>
       </c>
       <c r="J9">
-        <v>0.9647894861020418</v>
+        <v>0.9647894861020411</v>
       </c>
       <c r="K9">
-        <v>0.9798000854831337</v>
+        <v>0.9798000854831331</v>
       </c>
       <c r="L9">
-        <v>0.9606239891883102</v>
+        <v>0.9606239891883093</v>
       </c>
       <c r="M9">
-        <v>0.9190657956070938</v>
+        <v>0.9190657956070926</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9092431106557401</v>
+        <v>0.9092431106557398</v>
       </c>
       <c r="D10">
-        <v>0.9447798534344874</v>
+        <v>0.9447798534344876</v>
       </c>
       <c r="E10">
-        <v>0.9204002799622849</v>
+        <v>0.9204002799622851</v>
       </c>
       <c r="F10">
-        <v>0.8693563396280781</v>
+        <v>0.8693563396280779</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -746,13 +746,13 @@
         <v>0.941585500738345</v>
       </c>
       <c r="K10">
-        <v>0.9602232260800649</v>
+        <v>0.9602232260800648</v>
       </c>
       <c r="L10">
-        <v>0.9363725822706417</v>
+        <v>0.9363725822706418</v>
       </c>
       <c r="M10">
-        <v>0.8865666132143878</v>
+        <v>0.8865666132143877</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8956462226086943</v>
+        <v>0.8956462226086953</v>
       </c>
       <c r="D11">
-        <v>0.9342605503441211</v>
+        <v>0.934260550344122</v>
       </c>
       <c r="E11">
-        <v>0.9074880679870443</v>
+        <v>0.9074880679870453</v>
       </c>
       <c r="F11">
-        <v>0.8520184898330404</v>
+        <v>0.8520184898330413</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.000613109780115</v>
+        <v>1.000613109780116</v>
       </c>
       <c r="J11">
-        <v>0.9301114564960657</v>
+        <v>0.9301114564960665</v>
       </c>
       <c r="K11">
-        <v>0.950538668925079</v>
+        <v>0.9505386689250798</v>
       </c>
       <c r="L11">
-        <v>0.9243943530097998</v>
+        <v>0.9243943530098007</v>
       </c>
       <c r="M11">
-        <v>0.870399015343355</v>
+        <v>0.870399015343356</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8902651139028824</v>
+        <v>0.8902651139028855</v>
       </c>
       <c r="D12">
-        <v>0.9301021867805374</v>
+        <v>0.9301021867805398</v>
       </c>
       <c r="E12">
-        <v>0.9023818202120556</v>
+        <v>0.9023818202120585</v>
       </c>
       <c r="F12">
-        <v>0.8451264839790716</v>
+        <v>0.8451264839790752</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9984372468264723</v>
+        <v>0.9984372468264737</v>
       </c>
       <c r="J12">
-        <v>0.9255674554956541</v>
+        <v>0.9255674554956571</v>
       </c>
       <c r="K12">
-        <v>0.9467033173330834</v>
+        <v>0.946703317333086</v>
       </c>
       <c r="L12">
-        <v>0.9196529963263863</v>
+        <v>0.9196529963263893</v>
       </c>
       <c r="M12">
-        <v>0.8639738523798409</v>
+        <v>0.8639738523798446</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8914360862949378</v>
+        <v>0.8914360862949351</v>
       </c>
       <c r="D13">
-        <v>0.9310068329941584</v>
+        <v>0.9310068329941562</v>
       </c>
       <c r="E13">
-        <v>0.9034927907504126</v>
+        <v>0.9034927907504097</v>
       </c>
       <c r="F13">
-        <v>0.8466278098095796</v>
+        <v>0.8466278098095761</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9989109134473605</v>
+        <v>0.9989109134473595</v>
       </c>
       <c r="J13">
-        <v>0.926556402429528</v>
+        <v>0.9265564024295255</v>
       </c>
       <c r="K13">
-        <v>0.9475380242156523</v>
+        <v>0.9475380242156499</v>
       </c>
       <c r="L13">
-        <v>0.9206847866108602</v>
+        <v>0.9206847866108574</v>
       </c>
       <c r="M13">
-        <v>0.865373384098159</v>
+        <v>0.8653733840981558</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8952087739175615</v>
+        <v>0.8952087739175588</v>
       </c>
       <c r="D14">
-        <v>0.9339223960031808</v>
+        <v>0.9339223960031788</v>
       </c>
       <c r="E14">
-        <v>0.9070728805544944</v>
+        <v>0.907072880554492</v>
       </c>
       <c r="F14">
-        <v>0.8514588939460397</v>
+        <v>0.8514588939460369</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.000436308023068</v>
+        <v>1.000436308023067</v>
       </c>
       <c r="J14">
-        <v>0.9297421196726577</v>
+        <v>0.9297421196726553</v>
       </c>
       <c r="K14">
-        <v>0.9502269274921955</v>
+        <v>0.9502269274921934</v>
       </c>
       <c r="L14">
-        <v>0.9240089271502391</v>
+        <v>0.9240089271502366</v>
       </c>
       <c r="M14">
-        <v>0.8698772831437899</v>
+        <v>0.8698772831437873</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8974863603629598</v>
+        <v>0.8974863603629619</v>
       </c>
       <c r="D15">
-        <v>0.9356832051910356</v>
+        <v>0.9356832051910375</v>
       </c>
       <c r="E15">
-        <v>0.9092347236726372</v>
+        <v>0.9092347236726392</v>
       </c>
       <c r="F15">
-        <v>0.8543711634404397</v>
+        <v>0.8543711634404417</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.001356664771214</v>
+        <v>1.001356664771216</v>
       </c>
       <c r="J15">
-        <v>0.931664959377258</v>
+        <v>0.9316649593772601</v>
       </c>
       <c r="K15">
-        <v>0.9518499172018772</v>
+        <v>0.9518499172018791</v>
       </c>
       <c r="L15">
-        <v>0.9260156234222433</v>
+        <v>0.9260156234222452</v>
       </c>
       <c r="M15">
-        <v>0.8725925749437513</v>
+        <v>0.8725925749437531</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9101043559794093</v>
+        <v>0.9101043559794121</v>
       </c>
       <c r="D16">
-        <v>0.945446691255411</v>
+        <v>0.9454466912554135</v>
       </c>
       <c r="E16">
-        <v>0.9212186262097154</v>
+        <v>0.9212186262097185</v>
       </c>
       <c r="F16">
-        <v>0.8704511197335389</v>
+        <v>0.8704511197335424</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.006447379468456</v>
+        <v>1.006447379468458</v>
       </c>
       <c r="J16">
-        <v>0.9423118817357725</v>
+        <v>0.9423118817357754</v>
       </c>
       <c r="K16">
-        <v>0.9608362812930415</v>
+        <v>0.960836281293044</v>
       </c>
       <c r="L16">
-        <v>0.9371311724447684</v>
+        <v>0.9371311724447713</v>
       </c>
       <c r="M16">
-        <v>0.8875876466131211</v>
+        <v>0.8875876466131244</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9175269444910621</v>
+        <v>0.9175269444910655</v>
       </c>
       <c r="D17">
-        <v>0.9511961368847651</v>
+        <v>0.9511961368847679</v>
       </c>
       <c r="E17">
-        <v>0.9282737794524076</v>
+        <v>0.9282737794524111</v>
       </c>
       <c r="F17">
-        <v>0.8798709560943635</v>
+        <v>0.8798709560943675</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009434676058364</v>
+        <v>1.009434676058366</v>
       </c>
       <c r="J17">
-        <v>0.9485699874157522</v>
+        <v>0.9485699874157554</v>
       </c>
       <c r="K17">
-        <v>0.9661176361504142</v>
+        <v>0.9661176361504166</v>
       </c>
       <c r="L17">
-        <v>0.9436682670985653</v>
+        <v>0.9436682670985685</v>
       </c>
       <c r="M17">
-        <v>0.8963733860537563</v>
+        <v>0.8963733860537598</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9217021350052035</v>
+        <v>0.921702135005206</v>
       </c>
       <c r="D18">
-        <v>0.9544319086097722</v>
+        <v>0.9544319086097744</v>
       </c>
       <c r="E18">
-        <v>0.9322440771896312</v>
+        <v>0.9322440771896333</v>
       </c>
       <c r="F18">
-        <v>0.8851580381273231</v>
+        <v>0.885158038127326</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011112296005115</v>
+        <v>1.011112296005116</v>
       </c>
       <c r="J18">
-        <v>0.9520883649756864</v>
+        <v>0.9520883649756887</v>
       </c>
       <c r="K18">
-        <v>0.9690864676181957</v>
+        <v>0.9690864676181978</v>
       </c>
       <c r="L18">
-        <v>0.9473446979510967</v>
+        <v>0.9473446979510989</v>
       </c>
       <c r="M18">
-        <v>0.9013047901402034</v>
+        <v>0.901304790140206</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9231014482257808</v>
+        <v>0.9231014482257816</v>
       </c>
       <c r="D19">
-        <v>0.9555166315631528</v>
+        <v>0.9555166315631536</v>
       </c>
       <c r="E19">
-        <v>0.933575006724663</v>
+        <v>0.933575006724664</v>
       </c>
       <c r="F19">
-        <v>0.8869282408086978</v>
+        <v>0.8869282408086989</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.011674078898982</v>
       </c>
       <c r="J19">
-        <v>0.9532672428282957</v>
+        <v>0.9532672428282963</v>
       </c>
       <c r="K19">
-        <v>0.9700811316616073</v>
+        <v>0.970081131661608</v>
       </c>
       <c r="L19">
-        <v>0.9485767322206996</v>
+        <v>0.9485767322207003</v>
       </c>
       <c r="M19">
-        <v>0.9029559205561108</v>
+        <v>0.902955920556112</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9167469870963656</v>
+        <v>0.9167469870963666</v>
       </c>
       <c r="D20">
-        <v>0.9505918019587437</v>
+        <v>0.9505918019587445</v>
       </c>
       <c r="E20">
-        <v>0.9275322398176041</v>
+        <v>0.927532239817605</v>
       </c>
       <c r="F20">
-        <v>0.8788823924345536</v>
+        <v>0.8788823924345548</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.009121058351867</v>
       </c>
       <c r="J20">
-        <v>0.9479125805834204</v>
+        <v>0.9479125805834213</v>
       </c>
       <c r="K20">
-        <v>0.9655628752981816</v>
+        <v>0.9655628752981823</v>
       </c>
       <c r="L20">
-        <v>0.9429814253137199</v>
+        <v>0.9429814253137208</v>
       </c>
       <c r="M20">
-        <v>0.8954513384349476</v>
+        <v>0.8954513384349485</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8941077876928253</v>
+        <v>0.8941077876928279</v>
       </c>
       <c r="D21">
-        <v>0.9330713996433241</v>
+        <v>0.9330713996433264</v>
       </c>
       <c r="E21">
-        <v>0.9060279872058126</v>
+        <v>0.9060279872058149</v>
       </c>
       <c r="F21">
-        <v>0.850049959627284</v>
+        <v>0.8500499596272874</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9999912616668214</v>
+        <v>0.9999912616668226</v>
       </c>
       <c r="J21">
-        <v>0.9288125116455309</v>
+        <v>0.9288125116455335</v>
       </c>
       <c r="K21">
-        <v>0.9494422870477985</v>
+        <v>0.9494422870478008</v>
       </c>
       <c r="L21">
-        <v>0.9230388613384112</v>
+        <v>0.9230388613384136</v>
       </c>
       <c r="M21">
-        <v>0.8685637120637574</v>
+        <v>0.8685637120637603</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8778837770614282</v>
+        <v>0.8778837770614274</v>
       </c>
       <c r="D22">
-        <v>0.9205458453202476</v>
+        <v>0.9205458453202469</v>
       </c>
       <c r="E22">
-        <v>0.8906414466063659</v>
+        <v>0.890641446606365</v>
       </c>
       <c r="F22">
-        <v>0.8291949040814385</v>
+        <v>0.8291949040814374</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9934234364164207</v>
+        <v>0.9934234364164204</v>
       </c>
       <c r="J22">
-        <v>0.9151064625471506</v>
+        <v>0.9151064625471501</v>
       </c>
       <c r="K22">
-        <v>0.9378746563107856</v>
+        <v>0.9378746563107848</v>
       </c>
       <c r="L22">
-        <v>0.9087424260305276</v>
+        <v>0.908742426030527</v>
       </c>
       <c r="M22">
-        <v>0.8491265335723666</v>
+        <v>0.8491265335723657</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8867124349118726</v>
+        <v>0.8867124349118748</v>
       </c>
       <c r="D23">
-        <v>0.9273583996942849</v>
+        <v>0.9273583996942862</v>
       </c>
       <c r="E23">
-        <v>0.899011834043507</v>
+        <v>0.8990118340435086</v>
       </c>
       <c r="F23">
-        <v>0.8405659957369824</v>
+        <v>0.8405659957369849</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9969995815260017</v>
+        <v>0.9969995815260024</v>
       </c>
       <c r="J23">
-        <v>0.9225665875163498</v>
+        <v>0.9225665875163516</v>
       </c>
       <c r="K23">
-        <v>0.9441705353007508</v>
+        <v>0.9441705353007523</v>
       </c>
       <c r="L23">
-        <v>0.9165224897923243</v>
+        <v>0.916522489792326</v>
       </c>
       <c r="M23">
-        <v>0.8597229489474547</v>
+        <v>0.8597229489474569</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1260,13 +1260,13 @@
         <v>0.9170998875814999</v>
       </c>
       <c r="D24">
-        <v>0.950865234794033</v>
+        <v>0.9508652347940331</v>
       </c>
       <c r="E24">
-        <v>0.9278677521949789</v>
+        <v>0.9278677521949787</v>
       </c>
       <c r="F24">
-        <v>0.8793297148161013</v>
+        <v>0.8793297148161018</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.009262966786786</v>
       </c>
       <c r="J24">
-        <v>0.9482100373175856</v>
+        <v>0.9482100373175855</v>
       </c>
       <c r="K24">
-        <v>0.9658138891368795</v>
+        <v>0.9658138891368796</v>
       </c>
       <c r="L24">
-        <v>0.9432921967176452</v>
+        <v>0.9432921967176451</v>
       </c>
       <c r="M24">
-        <v>0.8958685618598766</v>
+        <v>0.8958685618598772</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9463481907535951</v>
+        <v>0.9463481907535982</v>
       </c>
       <c r="D25">
-        <v>0.9735521721466575</v>
+        <v>0.97355217214666</v>
       </c>
       <c r="E25">
-        <v>0.9557063765195594</v>
+        <v>0.9557063765195623</v>
       </c>
       <c r="F25">
-        <v>0.9162228322142704</v>
+        <v>0.9162228322142737</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.020966814513292</v>
+        <v>1.020966814513294</v>
       </c>
       <c r="J25">
-        <v>0.9728266243611927</v>
+        <v>0.9728266243611957</v>
       </c>
       <c r="K25">
-        <v>0.9865754178712571</v>
+        <v>0.9865754178712596</v>
       </c>
       <c r="L25">
-        <v>0.969033551147902</v>
+        <v>0.9690335511479046</v>
       </c>
       <c r="M25">
-        <v>0.9302776301039556</v>
+        <v>0.9302776301039589</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.966533769419358</v>
+        <v>0.9697272302059183</v>
       </c>
       <c r="D2">
-        <v>0.989226363616837</v>
+        <v>0.9916848123456415</v>
       </c>
       <c r="E2">
-        <v>0.9749544109989989</v>
+        <v>0.978122758101587</v>
       </c>
       <c r="F2">
-        <v>0.9415208578416154</v>
+        <v>0.9449007042246131</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028959263322114</v>
+        <v>1.030347787787911</v>
       </c>
       <c r="J2">
-        <v>0.9897636983087691</v>
+        <v>0.9928526978034932</v>
       </c>
       <c r="K2">
-        <v>1.000837861268647</v>
+        <v>1.003261219505764</v>
       </c>
       <c r="L2">
-        <v>0.986774061300818</v>
+        <v>0.9898955326993425</v>
       </c>
       <c r="M2">
-        <v>0.9538598465862914</v>
+        <v>0.9571850501428587</v>
+      </c>
+      <c r="N2">
+        <v>0.9942626625161702</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9798608017444622</v>
+        <v>0.9829959854503965</v>
       </c>
       <c r="D3">
-        <v>0.9995749917535109</v>
+        <v>1.001991336796831</v>
       </c>
       <c r="E3">
-        <v>0.9876778546460375</v>
+        <v>0.990793347212935</v>
       </c>
       <c r="F3">
-        <v>0.9581740661291964</v>
+        <v>0.9614689959143821</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034185437724606</v>
+        <v>1.035552465536733</v>
       </c>
       <c r="J3">
-        <v>1.000915955175318</v>
+        <v>1.003961180542996</v>
       </c>
       <c r="K3">
-        <v>1.010213313529404</v>
+        <v>1.012598801348532</v>
       </c>
       <c r="L3">
-        <v>0.9984708659188753</v>
+        <v>1.001545400224259</v>
       </c>
       <c r="M3">
-        <v>0.9693716493381679</v>
+        <v>0.9726198409145586</v>
+      </c>
+      <c r="N3">
+        <v>1.005386920575324</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9879803186601883</v>
+        <v>0.9910839603543867</v>
       </c>
       <c r="D4">
-        <v>1.005877722851763</v>
+        <v>1.008271402423169</v>
       </c>
       <c r="E4">
-        <v>0.9954355666164371</v>
+        <v>0.9985225480579043</v>
       </c>
       <c r="F4">
-        <v>0.968306985062367</v>
+        <v>0.9715556967461563</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037345677119176</v>
+        <v>1.038701273514022</v>
       </c>
       <c r="J4">
-        <v>1.007696567968267</v>
+        <v>1.010718522259685</v>
       </c>
       <c r="K4">
-        <v>1.015905722804794</v>
+        <v>1.018271013512897</v>
       </c>
       <c r="L4">
-        <v>1.00558939429858</v>
+        <v>1.008638837390996</v>
       </c>
       <c r="M4">
-        <v>0.9788035903617766</v>
+        <v>0.9820099910652351</v>
+      </c>
+      <c r="N4">
+        <v>1.012153858492328</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9912862367670747</v>
+        <v>0.9943778361273574</v>
       </c>
       <c r="D5">
-        <v>1.008443125370164</v>
+        <v>1.010828181909974</v>
       </c>
       <c r="E5">
-        <v>0.9985954544304969</v>
+        <v>1.001671572637244</v>
       </c>
       <c r="F5">
-        <v>0.9724306396291629</v>
+        <v>0.9756616363836698</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.0386266127454</v>
+        <v>1.039977893942549</v>
       </c>
       <c r="J5">
-        <v>1.010453988997297</v>
+        <v>1.013467156225319</v>
       </c>
       <c r="K5">
-        <v>1.018218634812712</v>
+        <v>1.020576285991266</v>
       </c>
       <c r="L5">
-        <v>1.00848583409484</v>
+        <v>1.01152577014124</v>
       </c>
       <c r="M5">
-        <v>0.9826403156019491</v>
+        <v>0.9858307286080343</v>
+      </c>
+      <c r="N5">
+        <v>1.014906395833467</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9918353464817269</v>
+        <v>0.9949249890426684</v>
       </c>
       <c r="D6">
-        <v>1.008869181985031</v>
+        <v>1.01125283916712</v>
       </c>
       <c r="E6">
-        <v>0.9991203803684874</v>
+        <v>1.002194734645782</v>
       </c>
       <c r="F6">
-        <v>0.9731154827896551</v>
+        <v>0.9763435966718533</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038839032870193</v>
+        <v>1.040189615807857</v>
       </c>
       <c r="J6">
-        <v>1.010911796039253</v>
+        <v>1.013923541124801</v>
       </c>
       <c r="K6">
-        <v>1.018602522617681</v>
+        <v>1.020958936655439</v>
       </c>
       <c r="L6">
-        <v>1.008966815402033</v>
+        <v>1.01200521084793</v>
       </c>
       <c r="M6">
-        <v>0.9832774058664773</v>
+        <v>0.9864652188900072</v>
+      </c>
+      <c r="N6">
+        <v>1.015363428851854</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9880248994582933</v>
+        <v>0.9911283757476013</v>
       </c>
       <c r="D7">
-        <v>1.005912321197704</v>
+        <v>1.008305882204129</v>
       </c>
       <c r="E7">
-        <v>0.9954781732475306</v>
+        <v>0.9985650053910788</v>
       </c>
       <c r="F7">
-        <v>0.9683625999519319</v>
+        <v>0.9716110686088686</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037362973807509</v>
+        <v>1.03871851073047</v>
       </c>
       <c r="J7">
-        <v>1.007733765566644</v>
+        <v>1.010755598771227</v>
       </c>
       <c r="K7">
-        <v>1.015936931953673</v>
+        <v>1.018302117439251</v>
       </c>
       <c r="L7">
-        <v>1.005628460926648</v>
+        <v>1.008677773144409</v>
       </c>
       <c r="M7">
-        <v>0.9788553422381162</v>
+        <v>0.9820615234862431</v>
+      </c>
+      <c r="N7">
+        <v>1.01219098765677</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9711507908809622</v>
+        <v>0.9743230995978946</v>
       </c>
       <c r="D8">
-        <v>0.992811829300884</v>
+        <v>0.9952549681423621</v>
       </c>
       <c r="E8">
-        <v>0.9793609495594819</v>
+        <v>0.9825100895234276</v>
       </c>
       <c r="F8">
-        <v>0.9472937934929246</v>
+        <v>0.9506428729965277</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03077490903315</v>
+        <v>1.032155583820278</v>
       </c>
       <c r="J8">
-        <v>0.9936302798742296</v>
+        <v>0.9967032901834905</v>
       </c>
       <c r="K8">
-        <v>1.004090057423682</v>
+        <v>1.006499599859032</v>
       </c>
       <c r="L8">
-        <v>0.9908279429856363</v>
+        <v>0.9939323031123309</v>
       </c>
       <c r="M8">
-        <v>0.9592384241861892</v>
+        <v>0.9625356961011285</v>
+      </c>
+      <c r="N8">
+        <v>0.9981187231790161</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9367885847286899</v>
+        <v>0.940146681000962</v>
       </c>
       <c r="D9">
-        <v>0.9661325449929302</v>
+        <v>0.9687108346101627</v>
       </c>
       <c r="E9">
-        <v>0.9466007520665551</v>
+        <v>0.9499192454378057</v>
       </c>
       <c r="F9">
-        <v>0.90420036678383</v>
+        <v>0.9078187944889543</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017155291649356</v>
+        <v>1.018606114274585</v>
       </c>
       <c r="J9">
-        <v>0.9647894861020411</v>
+        <v>0.9680057039661569</v>
       </c>
       <c r="K9">
-        <v>0.9798000854831331</v>
+        <v>0.9823328107362516</v>
       </c>
       <c r="L9">
-        <v>0.9606239891883093</v>
+        <v>0.9638807039011874</v>
       </c>
       <c r="M9">
-        <v>0.9190657956070926</v>
+        <v>0.9226082918045492</v>
+      </c>
+      <c r="N9">
+        <v>0.9693803830975948</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9092431106557398</v>
+        <v>0.9128095219437439</v>
       </c>
       <c r="D10">
-        <v>0.9447798534344876</v>
+        <v>0.9475106545146708</v>
       </c>
       <c r="E10">
-        <v>0.9204002799622851</v>
+        <v>0.9239098124488259</v>
       </c>
       <c r="F10">
-        <v>0.8693563396280779</v>
+        <v>0.873276913745489</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.006100386988374</v>
+        <v>1.00763173445964</v>
       </c>
       <c r="J10">
-        <v>0.941585500738345</v>
+        <v>0.9449670675856777</v>
       </c>
       <c r="K10">
-        <v>0.9602232260800648</v>
+        <v>0.9628970199040009</v>
       </c>
       <c r="L10">
-        <v>0.9363725822706418</v>
+        <v>0.9398036832027551</v>
       </c>
       <c r="M10">
-        <v>0.8865666132143877</v>
+        <v>0.8903851489915778</v>
+      </c>
+      <c r="N10">
+        <v>0.9463090292108871</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8956462226086953</v>
+        <v>0.8993422749814417</v>
       </c>
       <c r="D11">
-        <v>0.934260550344122</v>
+        <v>0.9370864924620365</v>
       </c>
       <c r="E11">
-        <v>0.9074880679870453</v>
+        <v>0.9111168670973429</v>
       </c>
       <c r="F11">
-        <v>0.8520184898330413</v>
+        <v>0.8561280389420219</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.000613109780116</v>
+        <v>1.002195080139343</v>
       </c>
       <c r="J11">
-        <v>0.9301114564960665</v>
+        <v>0.9335974288156473</v>
       </c>
       <c r="K11">
-        <v>0.9505386689250798</v>
+        <v>0.9533010946080129</v>
       </c>
       <c r="L11">
-        <v>0.9243943530098007</v>
+        <v>0.9279351024820395</v>
       </c>
       <c r="M11">
-        <v>0.870399015343356</v>
+        <v>0.8743903644996642</v>
+      </c>
+      <c r="N11">
+        <v>0.9349232442496872</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8902651139028855</v>
+        <v>0.8940185777356238</v>
       </c>
       <c r="D12">
-        <v>0.9301021867805398</v>
+        <v>0.9329702957796956</v>
       </c>
       <c r="E12">
-        <v>0.9023818202120585</v>
+        <v>0.9060635060456853</v>
       </c>
       <c r="F12">
-        <v>0.8451264839790752</v>
+        <v>0.8493200118628542</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9984372468264737</v>
+        <v>1.000041719576297</v>
       </c>
       <c r="J12">
-        <v>0.9255674554956571</v>
+        <v>0.9290999338005641</v>
       </c>
       <c r="K12">
-        <v>0.946703317333086</v>
+        <v>0.9495051357907487</v>
       </c>
       <c r="L12">
-        <v>0.9196529963263893</v>
+        <v>0.9232425056278066</v>
       </c>
       <c r="M12">
-        <v>0.8639738523798446</v>
+        <v>0.8680420101209354</v>
+      </c>
+      <c r="N12">
+        <v>0.930419362275813</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8914360862949351</v>
+        <v>0.8951767341402356</v>
       </c>
       <c r="D13">
-        <v>0.9310068329941562</v>
+        <v>0.933865527579347</v>
       </c>
       <c r="E13">
-        <v>0.9034927907504097</v>
+        <v>0.907162667327548</v>
       </c>
       <c r="F13">
-        <v>0.8466278098095761</v>
+        <v>0.8508025748192765</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9989109134473595</v>
+        <v>1.000510359123775</v>
       </c>
       <c r="J13">
-        <v>0.9265564024295255</v>
+        <v>0.9300784864113248</v>
       </c>
       <c r="K13">
-        <v>0.9475380242156499</v>
+        <v>0.9503310424276147</v>
       </c>
       <c r="L13">
-        <v>0.9206847866108574</v>
+        <v>0.9242634016701761</v>
       </c>
       <c r="M13">
-        <v>0.8653733840981558</v>
+        <v>0.8694243807566051</v>
+      </c>
+      <c r="N13">
+        <v>0.9313993045435225</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8952087739175588</v>
+        <v>0.8989093546795152</v>
       </c>
       <c r="D14">
-        <v>0.9339223960031788</v>
+        <v>0.9367516634317024</v>
       </c>
       <c r="E14">
-        <v>0.907072880554492</v>
+        <v>0.910705849733732</v>
       </c>
       <c r="F14">
-        <v>0.8514588939460369</v>
+        <v>0.8555750602162617</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.000436308023067</v>
+        <v>1.002020051614816</v>
       </c>
       <c r="J14">
-        <v>0.9297421196726553</v>
+        <v>0.9332317547118498</v>
       </c>
       <c r="K14">
-        <v>0.9502269274921934</v>
+        <v>0.9529924574813671</v>
       </c>
       <c r="L14">
-        <v>0.9240089271502366</v>
+        <v>0.9275535184960323</v>
       </c>
       <c r="M14">
-        <v>0.8698772831437873</v>
+        <v>0.873874684361574</v>
+      </c>
+      <c r="N14">
+        <v>0.9345570508467188</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8974863603629619</v>
+        <v>0.9011636228397677</v>
       </c>
       <c r="D15">
-        <v>0.9356832051910375</v>
+        <v>0.9384953506927698</v>
       </c>
       <c r="E15">
-        <v>0.9092347236726392</v>
+        <v>0.912846222414203</v>
       </c>
       <c r="F15">
-        <v>0.8543711634404417</v>
+        <v>0.8584532677331755</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.001356664771216</v>
+        <v>1.002931280601914</v>
       </c>
       <c r="J15">
-        <v>0.9316649593772601</v>
+        <v>0.9351357443196017</v>
       </c>
       <c r="K15">
-        <v>0.9518499172018791</v>
+        <v>0.9545994675211137</v>
       </c>
       <c r="L15">
-        <v>0.9260156234222452</v>
+        <v>0.9295404394893255</v>
       </c>
       <c r="M15">
-        <v>0.8725925749437531</v>
+        <v>0.876558823399429</v>
+      </c>
+      <c r="N15">
+        <v>0.9364637443381046</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9101043559794121</v>
+        <v>0.9136632284655181</v>
       </c>
       <c r="D16">
-        <v>0.9454466912554135</v>
+        <v>0.9481719637917317</v>
       </c>
       <c r="E16">
-        <v>0.9212186262097185</v>
+        <v>0.9247212307640973</v>
       </c>
       <c r="F16">
-        <v>0.8704511197335424</v>
+        <v>0.8743607307450717</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.006447379468458</v>
+        <v>1.007975792751089</v>
       </c>
       <c r="J16">
-        <v>0.9423118817357754</v>
+        <v>0.9456874070533267</v>
       </c>
       <c r="K16">
-        <v>0.960836281293044</v>
+        <v>0.9635049371302071</v>
       </c>
       <c r="L16">
-        <v>0.9371311724447713</v>
+        <v>0.9405559194293699</v>
       </c>
       <c r="M16">
-        <v>0.8875876466131244</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.891396159071308</v>
+      </c>
+      <c r="N16">
+        <v>0.9470303916432041</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9175269444910655</v>
+        <v>0.9210238296664213</v>
       </c>
       <c r="D17">
-        <v>0.9511961368847679</v>
+        <v>0.9538759726760424</v>
       </c>
       <c r="E17">
-        <v>0.9282737794524111</v>
+        <v>0.9317194558019199</v>
       </c>
       <c r="F17">
-        <v>0.8798709560943675</v>
+        <v>0.8836905196594168</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009434676058366</v>
+        <v>1.010939011526986</v>
       </c>
       <c r="J17">
-        <v>0.9485699874157554</v>
+        <v>0.9518959809669167</v>
       </c>
       <c r="K17">
-        <v>0.9661176361504166</v>
+        <v>0.9687441252681098</v>
       </c>
       <c r="L17">
-        <v>0.9436682670985685</v>
+        <v>0.9470408769155945</v>
       </c>
       <c r="M17">
-        <v>0.8963733860537598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9000995852402329</v>
+      </c>
+      <c r="N17">
+        <v>0.9532477824438849</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.921702135005206</v>
+        <v>0.9251663714411834</v>
       </c>
       <c r="D18">
-        <v>0.9544319086097744</v>
+        <v>0.9570878303798092</v>
       </c>
       <c r="E18">
-        <v>0.9322440771896333</v>
+        <v>0.9356597975628735</v>
       </c>
       <c r="F18">
-        <v>0.885158038127326</v>
+        <v>0.8889302360569902</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011112296005116</v>
+        <v>1.012603988318603</v>
       </c>
       <c r="J18">
-        <v>0.9520883649756887</v>
+        <v>0.9553883828307044</v>
       </c>
       <c r="K18">
-        <v>0.9690864676181978</v>
+        <v>0.9716908110201743</v>
       </c>
       <c r="L18">
-        <v>0.9473446979510989</v>
+        <v>0.9506899312113121</v>
       </c>
       <c r="M18">
-        <v>0.901304790140206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.904987705548958</v>
+      </c>
+      <c r="N18">
+        <v>0.956745143918903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9231014482257816</v>
+        <v>0.9265550792039184</v>
       </c>
       <c r="D19">
-        <v>0.9555166315631536</v>
+        <v>0.9581647882167803</v>
       </c>
       <c r="E19">
-        <v>0.933575006724664</v>
+        <v>0.9369810008851323</v>
       </c>
       <c r="F19">
-        <v>0.8869282408086989</v>
+        <v>0.890685060818053</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011674078898982</v>
+        <v>1.013161670702743</v>
       </c>
       <c r="J19">
-        <v>0.9532672428282963</v>
+        <v>0.9565588411842708</v>
       </c>
       <c r="K19">
-        <v>0.970081131661608</v>
+        <v>0.9726782918524787</v>
       </c>
       <c r="L19">
-        <v>0.9485767322207003</v>
+        <v>0.9519130862788613</v>
       </c>
       <c r="M19">
-        <v>0.902955920556112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9066247857946205</v>
+      </c>
+      <c r="N19">
+        <v>0.9579172644575852</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9167469870963666</v>
+        <v>0.920250143000978</v>
       </c>
       <c r="D20">
-        <v>0.9505918019587445</v>
+        <v>0.9532762323210412</v>
       </c>
       <c r="E20">
-        <v>0.927532239817605</v>
+        <v>0.9309836720262165</v>
       </c>
       <c r="F20">
-        <v>0.8788823924345548</v>
+        <v>0.882711057976532</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.009121058351867</v>
+        <v>1.010627825382974</v>
       </c>
       <c r="J20">
-        <v>0.9479125805834213</v>
+        <v>0.9512435725218021</v>
       </c>
       <c r="K20">
-        <v>0.9655628752981823</v>
+        <v>0.96819362316574</v>
       </c>
       <c r="L20">
-        <v>0.9429814253137208</v>
+        <v>0.94635930020854</v>
       </c>
       <c r="M20">
-        <v>0.8954513384349485</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8991858564194465</v>
+      </c>
+      <c r="N20">
+        <v>0.9525944475039461</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8941077876928279</v>
+        <v>0.8978198721504389</v>
       </c>
       <c r="D21">
-        <v>0.9330713996433264</v>
+        <v>0.9359091150452828</v>
       </c>
       <c r="E21">
-        <v>0.9060279872058149</v>
+        <v>0.9096715509468788</v>
       </c>
       <c r="F21">
-        <v>0.8500499596272874</v>
+        <v>0.8541829409589592</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9999912616668226</v>
+        <v>1.001579511217269</v>
       </c>
       <c r="J21">
-        <v>0.9288125116455335</v>
+        <v>0.9323114556156399</v>
       </c>
       <c r="K21">
-        <v>0.9494422870478008</v>
+        <v>0.952215705318687</v>
       </c>
       <c r="L21">
-        <v>0.9230388613384136</v>
+        <v>0.9265932156374611</v>
       </c>
       <c r="M21">
-        <v>0.8685637120637603</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8725764924733628</v>
+      </c>
+      <c r="N21">
+        <v>0.9336354448202326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8778837770614274</v>
+        <v>0.8817848742909856</v>
       </c>
       <c r="D22">
-        <v>0.9205458453202469</v>
+        <v>0.9235224540740213</v>
       </c>
       <c r="E22">
-        <v>0.890641446606365</v>
+        <v>0.8944592925059219</v>
       </c>
       <c r="F22">
-        <v>0.8291949040814374</v>
+        <v>0.8336052643496188</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9934234364164204</v>
+        <v>0.9950859557830544</v>
       </c>
       <c r="J22">
-        <v>0.9151064625471501</v>
+        <v>0.918759146606791</v>
       </c>
       <c r="K22">
-        <v>0.9378746563107848</v>
+        <v>0.9407780853602523</v>
       </c>
       <c r="L22">
-        <v>0.908742426030527</v>
+        <v>0.9124577825769423</v>
       </c>
       <c r="M22">
-        <v>0.8491265335723657</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8533930059915583</v>
+      </c>
+      <c r="N22">
+        <v>0.9200638899781197</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8867124349118748</v>
+        <v>0.8905059349216906</v>
       </c>
       <c r="D23">
-        <v>0.9273583996942862</v>
+        <v>0.930255923591385</v>
       </c>
       <c r="E23">
-        <v>0.8990118340435086</v>
+        <v>0.9027304227739116</v>
       </c>
       <c r="F23">
-        <v>0.8405659957369849</v>
+        <v>0.8448181986338907</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9969995815260024</v>
+        <v>0.9986197717076231</v>
       </c>
       <c r="J23">
-        <v>0.9225665875163516</v>
+        <v>0.9261315814097238</v>
       </c>
       <c r="K23">
-        <v>0.9441705353007523</v>
+        <v>0.946999867744529</v>
       </c>
       <c r="L23">
-        <v>0.916522489792326</v>
+        <v>0.9201460652301389</v>
       </c>
       <c r="M23">
-        <v>0.8597229489474569</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8638447726426228</v>
+      </c>
+      <c r="N23">
+        <v>0.9274467944841027</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9170998875814999</v>
+        <v>0.9206001993878445</v>
       </c>
       <c r="D24">
-        <v>0.9508652347940331</v>
+        <v>0.953547581225499</v>
       </c>
       <c r="E24">
-        <v>0.9278677521949787</v>
+        <v>0.9313165737354709</v>
       </c>
       <c r="F24">
-        <v>0.8793297148161018</v>
+        <v>0.8831542519501608</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.009262966786786</v>
+        <v>1.01076863085511</v>
       </c>
       <c r="J24">
-        <v>0.9482100373175855</v>
+        <v>0.9515387618694735</v>
       </c>
       <c r="K24">
-        <v>0.9658138891368796</v>
+        <v>0.9684427052385018</v>
       </c>
       <c r="L24">
-        <v>0.9432921967176451</v>
+        <v>0.9466676833596371</v>
       </c>
       <c r="M24">
-        <v>0.8958685618598772</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8995993066204022</v>
+      </c>
+      <c r="N24">
+        <v>0.9528900560543497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9463481907535982</v>
+        <v>0.9496475296448825</v>
       </c>
       <c r="D25">
-        <v>0.97355217214666</v>
+        <v>0.9760875863348567</v>
       </c>
       <c r="E25">
-        <v>0.9557063765195623</v>
+        <v>0.9589711731406486</v>
       </c>
       <c r="F25">
-        <v>0.9162228322142737</v>
+        <v>0.9197561951237871</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.020966814513294</v>
+        <v>1.022395210653641</v>
       </c>
       <c r="J25">
-        <v>0.9728266243611957</v>
+        <v>0.9759969732866713</v>
       </c>
       <c r="K25">
-        <v>0.9865754178712596</v>
+        <v>0.9890688121533798</v>
       </c>
       <c r="L25">
-        <v>0.9690335511479046</v>
+        <v>0.9722416518990306</v>
       </c>
       <c r="M25">
-        <v>0.9302776301039589</v>
+        <v>0.9337425444082408</v>
+      </c>
+      <c r="N25">
+        <v>0.9773830009371559</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>1.004175530401241</v>
+      </c>
+      <c r="D2">
+        <v>1.021796192435679</v>
+      </c>
+      <c r="E2">
+        <v>1.012323130743147</v>
+      </c>
+      <c r="F2">
+        <v>0.9812515049086216</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.045856628359453</v>
+      </c>
+      <c r="J2">
+        <v>1.02623206531538</v>
+      </c>
+      <c r="K2">
+        <v>1.032959998743383</v>
+      </c>
+      <c r="L2">
+        <v>1.023613413441588</v>
+      </c>
+      <c r="M2">
+        <v>0.9929783666531387</v>
+      </c>
+      <c r="N2">
+        <v>1.027689432558591</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.009422958241363</v>
+      </c>
+      <c r="D3">
+        <v>1.025830086851666</v>
+      </c>
+      <c r="E3">
+        <v>1.017065967906844</v>
+      </c>
+      <c r="F3">
+        <v>0.9891887494984107</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.047855991514015</v>
+      </c>
+      <c r="J3">
+        <v>1.029659998950317</v>
+      </c>
+      <c r="K3">
+        <v>1.036142799194214</v>
+      </c>
+      <c r="L3">
+        <v>1.027485045627904</v>
+      </c>
+      <c r="M3">
+        <v>0.9999618571865262</v>
+      </c>
+      <c r="N3">
+        <v>1.03112223425248</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.01273275681207</v>
+      </c>
+      <c r="D4">
+        <v>1.028375941583433</v>
+      </c>
+      <c r="E4">
+        <v>1.02006224066592</v>
+      </c>
+      <c r="F4">
+        <v>0.9941838229275263</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.049104608886602</v>
+      </c>
+      <c r="J4">
+        <v>1.031816271619685</v>
+      </c>
+      <c r="K4">
+        <v>1.038143544075759</v>
+      </c>
+      <c r="L4">
+        <v>1.029924414930957</v>
+      </c>
+      <c r="M4">
+        <v>1.004352954678502</v>
+      </c>
+      <c r="N4">
+        <v>1.033281569076366</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.01410461572516</v>
+      </c>
+      <c r="D5">
+        <v>1.029431461455889</v>
+      </c>
+      <c r="E5">
+        <v>1.021305252903817</v>
+      </c>
+      <c r="F5">
+        <v>0.9962519035479341</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.049619116212456</v>
+      </c>
+      <c r="J5">
+        <v>1.032708586089876</v>
+      </c>
+      <c r="K5">
+        <v>1.038971160751232</v>
+      </c>
+      <c r="L5">
+        <v>1.030934837335862</v>
+      </c>
+      <c r="M5">
+        <v>1.006170034526121</v>
+      </c>
+      <c r="N5">
+        <v>1.034175150735454</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.014333834281239</v>
+      </c>
+      <c r="D6">
+        <v>1.02960784048266</v>
+      </c>
+      <c r="E6">
+        <v>1.021513006994467</v>
+      </c>
+      <c r="F6">
+        <v>0.9965973274776478</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.049704904458739</v>
+      </c>
+      <c r="J6">
+        <v>1.032857595144913</v>
+      </c>
+      <c r="K6">
+        <v>1.039109345509929</v>
+      </c>
+      <c r="L6">
+        <v>1.031103625595879</v>
+      </c>
+      <c r="M6">
+        <v>1.006473478366933</v>
+      </c>
+      <c r="N6">
+        <v>1.034324371400441</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.012751163423224</v>
+      </c>
+      <c r="D7">
+        <v>1.028390102655002</v>
+      </c>
+      <c r="E7">
+        <v>1.020078914179583</v>
+      </c>
+      <c r="F7">
+        <v>0.994211579497925</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.049111524176684</v>
+      </c>
+      <c r="J7">
+        <v>1.031828249709401</v>
+      </c>
+      <c r="K7">
+        <v>1.038154655042395</v>
+      </c>
+      <c r="L7">
+        <v>1.029937974676278</v>
+      </c>
+      <c r="M7">
+        <v>1.004377346231015</v>
+      </c>
+      <c r="N7">
+        <v>1.033293564176343</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.005967230762038</v>
+      </c>
+      <c r="D8">
+        <v>1.023173192878597</v>
+      </c>
+      <c r="E8">
+        <v>1.01394152297895</v>
+      </c>
+      <c r="F8">
+        <v>0.9839642748889387</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.046541903371008</v>
+      </c>
+      <c r="J8">
+        <v>1.027403741104171</v>
+      </c>
+      <c r="K8">
+        <v>1.034048157277809</v>
+      </c>
+      <c r="L8">
+        <v>1.024935901769984</v>
+      </c>
+      <c r="M8">
+        <v>0.9953659326564468</v>
+      </c>
+      <c r="N8">
+        <v>1.028862772261395</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.993312144708118</v>
+      </c>
+      <c r="D9">
+        <v>1.0134559242715</v>
+      </c>
+      <c r="E9">
+        <v>1.002532339496557</v>
+      </c>
+      <c r="F9">
+        <v>0.9647355829979696</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.04164951621691</v>
+      </c>
+      <c r="J9">
+        <v>1.019103299093628</v>
+      </c>
+      <c r="K9">
+        <v>1.026334396706428</v>
+      </c>
+      <c r="L9">
+        <v>1.01558446443645</v>
+      </c>
+      <c r="M9">
+        <v>0.9784279430858317</v>
+      </c>
+      <c r="N9">
+        <v>1.020550542671124</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9843347831897685</v>
+      </c>
+      <c r="D10">
+        <v>1.006576509786242</v>
+      </c>
+      <c r="E10">
+        <v>0.9944683904352749</v>
+      </c>
+      <c r="F10">
+        <v>0.9509831543435135</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.038113687742078</v>
+      </c>
+      <c r="J10">
+        <v>1.013184014239414</v>
+      </c>
+      <c r="K10">
+        <v>1.020828029944278</v>
+      </c>
+      <c r="L10">
+        <v>1.008938243251937</v>
+      </c>
+      <c r="M10">
+        <v>0.9662976530568735</v>
+      </c>
+      <c r="N10">
+        <v>1.014622851753465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9803016046294716</v>
+      </c>
+      <c r="D11">
+        <v>1.00349010648653</v>
+      </c>
+      <c r="E11">
+        <v>0.9908532055131515</v>
+      </c>
+      <c r="F11">
+        <v>0.9447688687238188</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.036510126804961</v>
+      </c>
+      <c r="J11">
+        <v>1.010517458002467</v>
+      </c>
+      <c r="K11">
+        <v>1.018346503288846</v>
+      </c>
+      <c r="L11">
+        <v>1.00594970334267</v>
+      </c>
+      <c r="M11">
+        <v>0.9608133522153803</v>
+      </c>
+      <c r="N11">
+        <v>1.011952508700803</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9787798817391185</v>
+      </c>
+      <c r="D12">
+        <v>1.00232632758776</v>
+      </c>
+      <c r="E12">
+        <v>0.9894903940283232</v>
+      </c>
+      <c r="F12">
+        <v>0.942417904415412</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.035902877341531</v>
+      </c>
+      <c r="J12">
+        <v>1.009510280709183</v>
+      </c>
+      <c r="K12">
+        <v>1.017409094134425</v>
+      </c>
+      <c r="L12">
+        <v>1.004821749838324</v>
+      </c>
+      <c r="M12">
+        <v>0.9587381832687435</v>
+      </c>
+      <c r="N12">
+        <v>1.010943901100237</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9791073946584258</v>
+      </c>
+      <c r="D13">
+        <v>1.002576767830177</v>
+      </c>
+      <c r="E13">
+        <v>0.9897836500400844</v>
+      </c>
+      <c r="F13">
+        <v>0.9429241917692938</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.036033672475566</v>
+      </c>
+      <c r="J13">
+        <v>1.009727099316358</v>
+      </c>
+      <c r="K13">
+        <v>1.017610898382087</v>
+      </c>
+      <c r="L13">
+        <v>1.005064530216598</v>
+      </c>
+      <c r="M13">
+        <v>0.9591850924961127</v>
+      </c>
+      <c r="N13">
+        <v>1.011161027614704</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9801763108771729</v>
+      </c>
+      <c r="D14">
+        <v>1.003394269464827</v>
+      </c>
+      <c r="E14">
+        <v>0.9907409712870485</v>
+      </c>
+      <c r="F14">
+        <v>0.9445754316746119</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.036460172775007</v>
+      </c>
+      <c r="J14">
+        <v>1.010434552219504</v>
+      </c>
+      <c r="K14">
+        <v>1.018269342705213</v>
+      </c>
+      <c r="L14">
+        <v>1.005856838744708</v>
+      </c>
+      <c r="M14">
+        <v>0.9606426145592881</v>
+      </c>
+      <c r="N14">
+        <v>1.011869485182118</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9808317215163599</v>
+      </c>
+      <c r="D15">
+        <v>1.003895622188739</v>
+      </c>
+      <c r="E15">
+        <v>0.9913281168939535</v>
+      </c>
+      <c r="F15">
+        <v>0.9455870369070928</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.036721391629491</v>
+      </c>
+      <c r="J15">
+        <v>1.010868187701617</v>
+      </c>
+      <c r="K15">
+        <v>1.018672923489275</v>
+      </c>
+      <c r="L15">
+        <v>1.00634259765516</v>
+      </c>
+      <c r="M15">
+        <v>0.9615354957344356</v>
+      </c>
+      <c r="N15">
+        <v>1.012303736476355</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.984599236802651</v>
+      </c>
+      <c r="D16">
+        <v>1.006778979138093</v>
+      </c>
+      <c r="E16">
+        <v>0.9947055994186066</v>
+      </c>
+      <c r="F16">
+        <v>0.9513898030981999</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.038218523166472</v>
+      </c>
+      <c r="J16">
+        <v>1.013358709183657</v>
+      </c>
+      <c r="K16">
+        <v>1.020990584962179</v>
+      </c>
+      <c r="L16">
+        <v>1.009134147429353</v>
+      </c>
+      <c r="M16">
+        <v>0.966656477652549</v>
+      </c>
+      <c r="N16">
+        <v>1.014797794784567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.986922290050918</v>
+      </c>
+      <c r="D17">
+        <v>1.008558032242707</v>
+      </c>
+      <c r="E17">
+        <v>0.9967901973726248</v>
+      </c>
+      <c r="F17">
+        <v>0.9549577887476415</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.03913773375769</v>
+      </c>
+      <c r="J17">
+        <v>1.014892470472766</v>
+      </c>
+      <c r="K17">
+        <v>1.022417653795371</v>
+      </c>
+      <c r="L17">
+        <v>1.010854741097738</v>
+      </c>
+      <c r="M17">
+        <v>0.969804517392558</v>
+      </c>
+      <c r="N17">
+        <v>1.016333734190631</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9882633323219251</v>
+      </c>
+      <c r="D18">
+        <v>1.009585431595628</v>
+      </c>
+      <c r="E18">
+        <v>0.9979943017987232</v>
+      </c>
+      <c r="F18">
+        <v>0.9570141824318479</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.039666948846608</v>
+      </c>
+      <c r="J18">
+        <v>1.015777188898169</v>
+      </c>
+      <c r="K18">
+        <v>1.023240734133332</v>
+      </c>
+      <c r="L18">
+        <v>1.011847746251031</v>
+      </c>
+      <c r="M18">
+        <v>0.9716185882683152</v>
+      </c>
+      <c r="N18">
+        <v>1.017219709017677</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9887182746124248</v>
+      </c>
+      <c r="D19">
+        <v>1.009934036557239</v>
+      </c>
+      <c r="E19">
+        <v>0.9984029085403415</v>
+      </c>
+      <c r="F19">
+        <v>0.9577112669125057</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.039846240124816</v>
+      </c>
+      <c r="J19">
+        <v>1.016077209063204</v>
+      </c>
+      <c r="K19">
+        <v>1.023519835082469</v>
+      </c>
+      <c r="L19">
+        <v>1.012184575132544</v>
+      </c>
+      <c r="M19">
+        <v>0.9722334779590381</v>
+      </c>
+      <c r="N19">
+        <v>1.017520155245759</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9866745035779281</v>
+      </c>
+      <c r="D20">
+        <v>1.008368229444851</v>
+      </c>
+      <c r="E20">
+        <v>0.9965677707288083</v>
+      </c>
+      <c r="F20">
+        <v>0.9545775633266104</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.039039834452961</v>
+      </c>
+      <c r="J20">
+        <v>1.014728944197637</v>
+      </c>
+      <c r="K20">
+        <v>1.022265512481753</v>
+      </c>
+      <c r="L20">
+        <v>1.010671241432209</v>
+      </c>
+      <c r="M20">
+        <v>0.9694690733176791</v>
+      </c>
+      <c r="N20">
+        <v>1.016169975689434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9798622083122072</v>
+      </c>
+      <c r="D21">
+        <v>1.003154024800319</v>
+      </c>
+      <c r="E21">
+        <v>0.9904596275644652</v>
+      </c>
+      <c r="F21">
+        <v>0.9440903938381431</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.036334905895144</v>
+      </c>
+      <c r="J21">
+        <v>1.010226695889329</v>
+      </c>
+      <c r="K21">
+        <v>1.01807588857985</v>
+      </c>
+      <c r="L21">
+        <v>1.005624027836629</v>
+      </c>
+      <c r="M21">
+        <v>0.9602144891529002</v>
+      </c>
+      <c r="N21">
+        <v>1.011661333672113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9754414026792245</v>
+      </c>
+      <c r="D22">
+        <v>0.9997745696517029</v>
+      </c>
+      <c r="E22">
+        <v>0.9865028254511101</v>
+      </c>
+      <c r="F22">
+        <v>0.9372474176224316</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.034566588535054</v>
+      </c>
+      <c r="J22">
+        <v>1.007298664159499</v>
+      </c>
+      <c r="K22">
+        <v>1.015350493684471</v>
+      </c>
+      <c r="L22">
+        <v>1.002346491157594</v>
+      </c>
+      <c r="M22">
+        <v>0.9541736736999212</v>
+      </c>
+      <c r="N22">
+        <v>1.008729143801378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.977798619800733</v>
+      </c>
+      <c r="D23">
+        <v>1.001576096321466</v>
+      </c>
+      <c r="E23">
+        <v>0.9886119498312281</v>
+      </c>
+      <c r="F23">
+        <v>0.9409000137310446</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.035510678752882</v>
+      </c>
+      <c r="J23">
+        <v>1.008860511855634</v>
+      </c>
+      <c r="K23">
+        <v>1.016804305740663</v>
+      </c>
+      <c r="L23">
+        <v>1.004094302200405</v>
+      </c>
+      <c r="M23">
+        <v>0.9573982658105264</v>
+      </c>
+      <c r="N23">
+        <v>1.010293209500387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9867865106201577</v>
+      </c>
+      <c r="D24">
+        <v>1.008454024877616</v>
+      </c>
+      <c r="E24">
+        <v>0.9966683121348293</v>
+      </c>
+      <c r="F24">
+        <v>0.954749447042532</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.039084092343309</v>
+      </c>
+      <c r="J24">
+        <v>1.014802865186746</v>
+      </c>
+      <c r="K24">
+        <v>1.022334287269402</v>
+      </c>
+      <c r="L24">
+        <v>1.010754189660458</v>
+      </c>
+      <c r="M24">
+        <v>0.9696207141973813</v>
+      </c>
+      <c r="N24">
+        <v>1.016244001654826</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.996673590994032</v>
+      </c>
+      <c r="D25">
+        <v>1.016034943792557</v>
+      </c>
+      <c r="E25">
+        <v>1.005557975268123</v>
+      </c>
+      <c r="F25">
+        <v>0.9698595100041683</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.042960334954647</v>
+      </c>
+      <c r="J25">
+        <v>1.021313422998218</v>
+      </c>
+      <c r="K25">
+        <v>1.028389334991462</v>
+      </c>
+      <c r="L25">
+        <v>1.018070619208889</v>
+      </c>
+      <c r="M25">
+        <v>0.9829444616057951</v>
+      </c>
+      <c r="N25">
+        <v>1.022763805205162</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004175530401241</v>
+        <v>1.033443141075383</v>
       </c>
       <c r="D2">
-        <v>1.021796192435679</v>
+        <v>1.037770101111458</v>
       </c>
       <c r="E2">
-        <v>1.012323130743147</v>
+        <v>1.037085900938381</v>
       </c>
       <c r="F2">
-        <v>0.9812515049086216</v>
+        <v>1.032078606655924</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045856628359453</v>
+        <v>1.038069521806609</v>
       </c>
       <c r="J2">
-        <v>1.02623206531538</v>
+        <v>1.038567839859251</v>
       </c>
       <c r="K2">
-        <v>1.032959998743383</v>
+        <v>1.040560038278691</v>
       </c>
       <c r="L2">
-        <v>1.023613413441588</v>
+        <v>1.039877791016656</v>
       </c>
       <c r="M2">
-        <v>0.9929783666531387</v>
+        <v>1.034884874677332</v>
       </c>
       <c r="N2">
-        <v>1.027689432558591</v>
+        <v>1.040042725317279</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.009422958241363</v>
+        <v>1.034495350735429</v>
       </c>
       <c r="D3">
-        <v>1.025830086851666</v>
+        <v>1.038588155933879</v>
       </c>
       <c r="E3">
-        <v>1.017065967906844</v>
+        <v>1.038086392403691</v>
       </c>
       <c r="F3">
-        <v>0.9891887494984107</v>
+        <v>1.03376161757437</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047855991514015</v>
+        <v>1.038391595922896</v>
       </c>
       <c r="J3">
-        <v>1.029659998950317</v>
+        <v>1.039262244604023</v>
       </c>
       <c r="K3">
-        <v>1.036142799194214</v>
+        <v>1.041187947440163</v>
       </c>
       <c r="L3">
-        <v>1.027485045627904</v>
+        <v>1.040687512215347</v>
       </c>
       <c r="M3">
-        <v>0.9999618571865262</v>
+        <v>1.036374244038986</v>
       </c>
       <c r="N3">
-        <v>1.03112223425248</v>
+        <v>1.040738116196406</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.01273275681207</v>
+        <v>1.035175733481377</v>
       </c>
       <c r="D4">
-        <v>1.028375941583433</v>
+        <v>1.039116987653382</v>
       </c>
       <c r="E4">
-        <v>1.02006224066592</v>
+        <v>1.038733661922403</v>
       </c>
       <c r="F4">
-        <v>0.9941838229275263</v>
+        <v>1.034850085502957</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049104608886602</v>
+        <v>1.038598374468225</v>
       </c>
       <c r="J4">
-        <v>1.031816271619685</v>
+        <v>1.039710542792559</v>
       </c>
       <c r="K4">
-        <v>1.038143544075759</v>
+        <v>1.041593095281353</v>
       </c>
       <c r="L4">
-        <v>1.029924414930957</v>
+        <v>1.041210733069864</v>
       </c>
       <c r="M4">
-        <v>1.004352954678502</v>
+        <v>1.037336961699244</v>
       </c>
       <c r="N4">
-        <v>1.033281569076366</v>
+        <v>1.041187051019791</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01410461572516</v>
+        <v>1.035461656154014</v>
       </c>
       <c r="D5">
-        <v>1.029431461455889</v>
+        <v>1.039339188411004</v>
       </c>
       <c r="E5">
-        <v>1.021305252903817</v>
+        <v>1.039005747541528</v>
       </c>
       <c r="F5">
-        <v>0.9962519035479341</v>
+        <v>1.035307552671882</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049619116212456</v>
+        <v>1.038684915700268</v>
       </c>
       <c r="J5">
-        <v>1.032708586089876</v>
+        <v>1.039898762343401</v>
       </c>
       <c r="K5">
-        <v>1.038971160751232</v>
+        <v>1.041763144640651</v>
       </c>
       <c r="L5">
-        <v>1.030934837335862</v>
+        <v>1.04143052318062</v>
       </c>
       <c r="M5">
-        <v>1.006170034526121</v>
+        <v>1.037741454470166</v>
       </c>
       <c r="N5">
-        <v>1.034175150735454</v>
+        <v>1.041375537863984</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014333834281239</v>
+        <v>1.035509657411936</v>
       </c>
       <c r="D6">
-        <v>1.02960784048266</v>
+        <v>1.039376489872652</v>
       </c>
       <c r="E6">
-        <v>1.021513006994467</v>
+        <v>1.039051430393727</v>
       </c>
       <c r="F6">
-        <v>0.9965973274776478</v>
+        <v>1.035384356326528</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049704904458739</v>
+        <v>1.038699423589747</v>
       </c>
       <c r="J6">
-        <v>1.032857595144913</v>
+        <v>1.039930350899374</v>
       </c>
       <c r="K6">
-        <v>1.039109345509929</v>
+        <v>1.041791680586817</v>
       </c>
       <c r="L6">
-        <v>1.031103625595879</v>
+        <v>1.041467416857537</v>
       </c>
       <c r="M6">
-        <v>1.006473478366933</v>
+        <v>1.037809357071515</v>
       </c>
       <c r="N6">
-        <v>1.034324371400441</v>
+        <v>1.04140717127933</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.012751163423224</v>
+        <v>1.035179554425245</v>
       </c>
       <c r="D7">
-        <v>1.028390102655002</v>
+        <v>1.039119957181869</v>
       </c>
       <c r="E7">
-        <v>1.020078914179583</v>
+        <v>1.038737297646444</v>
       </c>
       <c r="F7">
-        <v>0.994211579497925</v>
+        <v>1.034856198682454</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049111524176684</v>
+        <v>1.038599532362149</v>
       </c>
       <c r="J7">
-        <v>1.031828249709401</v>
+        <v>1.039713058752738</v>
       </c>
       <c r="K7">
-        <v>1.038154655042395</v>
+        <v>1.041595368567927</v>
       </c>
       <c r="L7">
-        <v>1.029937974676278</v>
+        <v>1.041213670590285</v>
       </c>
       <c r="M7">
-        <v>1.004377346231015</v>
+        <v>1.037342367461677</v>
       </c>
       <c r="N7">
-        <v>1.033293564176343</v>
+        <v>1.041189570552921</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005967230762038</v>
+        <v>1.033798837990086</v>
       </c>
       <c r="D8">
-        <v>1.023173192878597</v>
+        <v>1.038046671425296</v>
       </c>
       <c r="E8">
-        <v>1.01394152297895</v>
+        <v>1.037424046283184</v>
       </c>
       <c r="F8">
-        <v>0.9839642748889387</v>
+        <v>1.032647507069905</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046541903371008</v>
+        <v>1.038178705048055</v>
       </c>
       <c r="J8">
-        <v>1.027403741104171</v>
+        <v>1.038802730751661</v>
       </c>
       <c r="K8">
-        <v>1.034048157277809</v>
+        <v>1.040772482032075</v>
       </c>
       <c r="L8">
-        <v>1.024935901769984</v>
+        <v>1.040151590451215</v>
       </c>
       <c r="M8">
-        <v>0.9953659326564468</v>
+        <v>1.035388425873213</v>
       </c>
       <c r="N8">
-        <v>1.028862772261395</v>
+        <v>1.040277949781667</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.993312144708118</v>
+        <v>1.031362186837383</v>
       </c>
       <c r="D9">
-        <v>1.0134559242715</v>
+        <v>1.036151510363911</v>
       </c>
       <c r="E9">
-        <v>1.002532339496557</v>
+        <v>1.035108994569903</v>
       </c>
       <c r="F9">
-        <v>0.9647355829979696</v>
+        <v>1.028750938340536</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04164951621691</v>
+        <v>1.037424683474921</v>
       </c>
       <c r="J9">
-        <v>1.019103299093628</v>
+        <v>1.037190691308793</v>
       </c>
       <c r="K9">
-        <v>1.026334396706428</v>
+        <v>1.039313593974527</v>
       </c>
       <c r="L9">
-        <v>1.01558446443645</v>
+        <v>1.038274481664023</v>
       </c>
       <c r="M9">
-        <v>0.9784279430858317</v>
+        <v>1.031937346251021</v>
       </c>
       <c r="N9">
-        <v>1.020550542671124</v>
+        <v>1.038663621057887</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9843347831897685</v>
+        <v>1.029735191198113</v>
       </c>
       <c r="D10">
-        <v>1.006576509786242</v>
+        <v>1.034885404923</v>
       </c>
       <c r="E10">
-        <v>0.9944683904352749</v>
+        <v>1.033564923033724</v>
       </c>
       <c r="F10">
-        <v>0.9509831543435135</v>
+        <v>1.026149676863493</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038113687742078</v>
+        <v>1.036913581740449</v>
       </c>
       <c r="J10">
-        <v>1.013184014239414</v>
+        <v>1.036110596142776</v>
       </c>
       <c r="K10">
-        <v>1.020828029944278</v>
+        <v>1.038334990546673</v>
       </c>
       <c r="L10">
-        <v>1.008938243251937</v>
+        <v>1.037019244471553</v>
       </c>
       <c r="M10">
-        <v>0.9662976530568735</v>
+        <v>1.029630842641893</v>
       </c>
       <c r="N10">
-        <v>1.014622851753465</v>
+        <v>1.037581992032846</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9803016046294716</v>
+        <v>1.029030052121346</v>
       </c>
       <c r="D11">
-        <v>1.00349010648653</v>
+        <v>1.034336523977837</v>
       </c>
       <c r="E11">
-        <v>0.9908532055131515</v>
+        <v>1.032896138443653</v>
       </c>
       <c r="F11">
-        <v>0.9447688687238188</v>
+        <v>1.025022354140596</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036510126804961</v>
+        <v>1.036690263126167</v>
       </c>
       <c r="J11">
-        <v>1.010517458002467</v>
+        <v>1.035641604533457</v>
       </c>
       <c r="K11">
-        <v>1.018346503288846</v>
+        <v>1.03790980529021</v>
       </c>
       <c r="L11">
-        <v>1.00594970334267</v>
+        <v>1.036474786798826</v>
       </c>
       <c r="M11">
-        <v>0.9608133522153803</v>
+        <v>1.028630636498159</v>
       </c>
       <c r="N11">
-        <v>1.011952508700803</v>
+        <v>1.037112334401647</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9787798817391185</v>
+        <v>1.028768033824035</v>
       </c>
       <c r="D12">
-        <v>1.00232632758776</v>
+        <v>1.03413254658251</v>
       </c>
       <c r="E12">
-        <v>0.9894903940283232</v>
+        <v>1.032647691683701</v>
       </c>
       <c r="F12">
-        <v>0.942417904415412</v>
+        <v>1.024603462970263</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035902877341531</v>
+        <v>1.036607010122237</v>
       </c>
       <c r="J12">
-        <v>1.009510280709183</v>
+        <v>1.035467202796281</v>
       </c>
       <c r="K12">
-        <v>1.017409094134425</v>
+        <v>1.037751654438174</v>
       </c>
       <c r="L12">
-        <v>1.004821749838324</v>
+        <v>1.036272409407586</v>
       </c>
       <c r="M12">
-        <v>0.9587381832687435</v>
+        <v>1.028258885765503</v>
       </c>
       <c r="N12">
-        <v>1.010943901100237</v>
+        <v>1.036937684994</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9791073946584258</v>
+        <v>1.028824242119842</v>
       </c>
       <c r="D13">
-        <v>1.002576767830177</v>
+        <v>1.034176304904355</v>
       </c>
       <c r="E13">
-        <v>0.9897836500400844</v>
+        <v>1.032700985758375</v>
       </c>
       <c r="F13">
-        <v>0.9429241917692938</v>
+        <v>1.024693323634251</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036033672475566</v>
+        <v>1.036624881877424</v>
       </c>
       <c r="J13">
-        <v>1.009727099316358</v>
+        <v>1.035504621517751</v>
       </c>
       <c r="K13">
-        <v>1.017610898382087</v>
+        <v>1.037785588223141</v>
       </c>
       <c r="L13">
-        <v>1.005064530216598</v>
+        <v>1.036315826477074</v>
       </c>
       <c r="M13">
-        <v>0.9591850924961127</v>
+        <v>1.028338638080971</v>
       </c>
       <c r="N13">
-        <v>1.011161027614704</v>
+        <v>1.036975156854347</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9801763108771729</v>
+        <v>1.029008395624223</v>
       </c>
       <c r="D14">
-        <v>1.003394269464827</v>
+        <v>1.034319665159867</v>
       </c>
       <c r="E14">
-        <v>0.9907409712870485</v>
+        <v>1.032875602386291</v>
       </c>
       <c r="F14">
-        <v>0.9445754316746119</v>
+        <v>1.024987731646735</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036460172775007</v>
+        <v>1.036683387583123</v>
       </c>
       <c r="J14">
-        <v>1.010434552219504</v>
+        <v>1.035627192466905</v>
       </c>
       <c r="K14">
-        <v>1.018269342705213</v>
+        <v>1.0378967369482</v>
       </c>
       <c r="L14">
-        <v>1.005856838744708</v>
+        <v>1.036458061117786</v>
       </c>
       <c r="M14">
-        <v>0.9606426145592881</v>
+        <v>1.028599912197911</v>
       </c>
       <c r="N14">
-        <v>1.011869485182118</v>
+        <v>1.037097901868307</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9808317215163599</v>
+        <v>1.029121845590908</v>
       </c>
       <c r="D15">
-        <v>1.003895622188739</v>
+        <v>1.034407981050328</v>
       </c>
       <c r="E15">
-        <v>0.9913281168939535</v>
+        <v>1.032983185378532</v>
       </c>
       <c r="F15">
-        <v>0.9455870369070928</v>
+        <v>1.025169105548184</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036721391629491</v>
+        <v>1.036719394766891</v>
       </c>
       <c r="J15">
-        <v>1.010868187701617</v>
+        <v>1.035702686273198</v>
       </c>
       <c r="K15">
-        <v>1.018672923489275</v>
+        <v>1.037965190406085</v>
       </c>
       <c r="L15">
-        <v>1.00634259765516</v>
+        <v>1.036545677766973</v>
       </c>
       <c r="M15">
-        <v>0.9615354957344356</v>
+        <v>1.028760861133629</v>
       </c>
       <c r="N15">
-        <v>1.012303736476355</v>
+        <v>1.037173502884465</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.984599236802651</v>
+        <v>1.029781975300137</v>
       </c>
       <c r="D16">
-        <v>1.006778979138093</v>
+        <v>1.034921818579643</v>
       </c>
       <c r="E16">
-        <v>0.9947055994186066</v>
+        <v>1.033609303892835</v>
       </c>
       <c r="F16">
-        <v>0.9513898030981999</v>
+        <v>1.026224472564731</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038218523166472</v>
+        <v>1.036928360281361</v>
       </c>
       <c r="J16">
-        <v>1.013358709183657</v>
+        <v>1.036141693979159</v>
       </c>
       <c r="K16">
-        <v>1.020990584962179</v>
+        <v>1.038363178172694</v>
       </c>
       <c r="L16">
-        <v>1.009134147429353</v>
+        <v>1.037055358568867</v>
       </c>
       <c r="M16">
-        <v>0.966656477652549</v>
+        <v>1.029697191269401</v>
       </c>
       <c r="N16">
-        <v>1.014797794784567</v>
+        <v>1.037613134031723</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.986922290050918</v>
+        <v>1.030195884531358</v>
       </c>
       <c r="D17">
-        <v>1.008558032242707</v>
+        <v>1.035243960792249</v>
       </c>
       <c r="E17">
-        <v>0.9967901973726248</v>
+        <v>1.034001999102647</v>
       </c>
       <c r="F17">
-        <v>0.9549577887476415</v>
+        <v>1.026886213102772</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03913773375769</v>
+        <v>1.037058900602357</v>
       </c>
       <c r="J17">
-        <v>1.014892470472766</v>
+        <v>1.036416721887937</v>
       </c>
       <c r="K17">
-        <v>1.022417653795371</v>
+        <v>1.038612438040007</v>
       </c>
       <c r="L17">
-        <v>1.010854741097738</v>
+        <v>1.037374817311271</v>
       </c>
       <c r="M17">
-        <v>0.969804517392558</v>
+        <v>1.030284125893637</v>
       </c>
       <c r="N17">
-        <v>1.016333734190631</v>
+        <v>1.037888552511678</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9882633323219251</v>
+        <v>1.030437249256041</v>
       </c>
       <c r="D18">
-        <v>1.009585431595628</v>
+        <v>1.035431798355089</v>
       </c>
       <c r="E18">
-        <v>0.9979943017987232</v>
+        <v>1.034231033214826</v>
       </c>
       <c r="F18">
-        <v>0.9570141824318479</v>
+        <v>1.027272103219706</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039666948846608</v>
+        <v>1.03713484885713</v>
       </c>
       <c r="J18">
-        <v>1.015777188898169</v>
+        <v>1.036577015372905</v>
       </c>
       <c r="K18">
-        <v>1.023240734133332</v>
+        <v>1.038757687909456</v>
       </c>
       <c r="L18">
-        <v>1.011847746251031</v>
+        <v>1.037561062404559</v>
       </c>
       <c r="M18">
-        <v>0.9716185882683152</v>
+        <v>1.030626333169913</v>
       </c>
       <c r="N18">
-        <v>1.017219709017677</v>
+        <v>1.03804907363178</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9887182746124248</v>
+        <v>1.030519538020688</v>
       </c>
       <c r="D19">
-        <v>1.009934036557239</v>
+        <v>1.035495835534633</v>
       </c>
       <c r="E19">
-        <v>0.9984029085403415</v>
+        <v>1.034309124863377</v>
       </c>
       <c r="F19">
-        <v>0.9577112669125057</v>
+        <v>1.027403666460838</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039846240124816</v>
+        <v>1.037160712418263</v>
       </c>
       <c r="J19">
-        <v>1.016077209063204</v>
+        <v>1.036631650045542</v>
       </c>
       <c r="K19">
-        <v>1.023519835082469</v>
+        <v>1.038807190789294</v>
       </c>
       <c r="L19">
-        <v>1.012184575132544</v>
+        <v>1.037624551987324</v>
       </c>
       <c r="M19">
-        <v>0.9722334779590381</v>
+        <v>1.030742993207136</v>
       </c>
       <c r="N19">
-        <v>1.017520155245759</v>
+        <v>1.038103785891919</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9866745035779281</v>
+        <v>1.030151482367723</v>
       </c>
       <c r="D20">
-        <v>1.008368229444851</v>
+        <v>1.035209404457869</v>
       </c>
       <c r="E20">
-        <v>0.9965677707288083</v>
+        <v>1.033959868533564</v>
       </c>
       <c r="F20">
-        <v>0.9545775633266104</v>
+        <v>1.026815224181161</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039039834452961</v>
+        <v>1.037044914903013</v>
       </c>
       <c r="J20">
-        <v>1.014728944197637</v>
+        <v>1.036387227002892</v>
       </c>
       <c r="K20">
-        <v>1.022265512481753</v>
+        <v>1.038585709221467</v>
       </c>
       <c r="L20">
-        <v>1.010671241432209</v>
+        <v>1.037340551709808</v>
       </c>
       <c r="M20">
-        <v>0.9694690733176791</v>
+        <v>1.030221168083334</v>
       </c>
       <c r="N20">
-        <v>1.016169975689434</v>
+        <v>1.037859015740512</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9798622083122072</v>
+        <v>1.028954169737044</v>
       </c>
       <c r="D21">
-        <v>1.003154024800319</v>
+        <v>1.034277451867622</v>
       </c>
       <c r="E21">
-        <v>0.9904596275644652</v>
+        <v>1.032824182993502</v>
       </c>
       <c r="F21">
-        <v>0.9440903938381431</v>
+        <v>1.024901040131331</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036334905895144</v>
+        <v>1.036666167468863</v>
       </c>
       <c r="J21">
-        <v>1.010226695889329</v>
+        <v>1.035591103838473</v>
       </c>
       <c r="K21">
-        <v>1.01807588857985</v>
+        <v>1.037864012450119</v>
       </c>
       <c r="L21">
-        <v>1.005624027836629</v>
+        <v>1.036416180482093</v>
       </c>
       <c r="M21">
-        <v>0.9602144891529002</v>
+        <v>1.028522979886578</v>
       </c>
       <c r="N21">
-        <v>1.011661333672113</v>
+        <v>1.037061761989883</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9754414026792245</v>
+        <v>1.028200802227122</v>
       </c>
       <c r="D22">
-        <v>0.9997745696517029</v>
+        <v>1.033690925424945</v>
       </c>
       <c r="E22">
-        <v>0.9865028254511101</v>
+        <v>1.03210995580103</v>
       </c>
       <c r="F22">
-        <v>0.9372474176224316</v>
+        <v>1.023696625012852</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034566588535054</v>
+        <v>1.03642628318367</v>
       </c>
       <c r="J22">
-        <v>1.007298664159499</v>
+        <v>1.035089406888714</v>
       </c>
       <c r="K22">
-        <v>1.015350493684471</v>
+        <v>1.037408990465987</v>
       </c>
       <c r="L22">
-        <v>1.002346491157594</v>
+        <v>1.035834171724871</v>
       </c>
       <c r="M22">
-        <v>0.9541736736999212</v>
+        <v>1.027453928936851</v>
       </c>
       <c r="N22">
-        <v>1.008729143801378</v>
+        <v>1.03655935257291</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.977798619800733</v>
+        <v>1.028600231326533</v>
       </c>
       <c r="D23">
-        <v>1.001576096321466</v>
+        <v>1.034001908664863</v>
       </c>
       <c r="E23">
-        <v>0.9886119498312281</v>
+        <v>1.032488598438143</v>
       </c>
       <c r="F23">
-        <v>0.9409000137310446</v>
+        <v>1.024335195854719</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035510678752882</v>
+        <v>1.036553616607716</v>
       </c>
       <c r="J23">
-        <v>1.008860511855634</v>
+        <v>1.035355474778511</v>
       </c>
       <c r="K23">
-        <v>1.016804305740663</v>
+        <v>1.037650326326263</v>
       </c>
       <c r="L23">
-        <v>1.004094302200405</v>
+        <v>1.036142783830502</v>
       </c>
       <c r="M23">
-        <v>0.9573982658105264</v>
+        <v>1.028020782093317</v>
       </c>
       <c r="N23">
-        <v>1.010293209500387</v>
+        <v>1.036825798309629</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9867865106201577</v>
+        <v>1.030171545983712</v>
       </c>
       <c r="D24">
-        <v>1.008454024877616</v>
+        <v>1.035225019170788</v>
       </c>
       <c r="E24">
-        <v>0.9966683121348293</v>
+        <v>1.033978905580492</v>
       </c>
       <c r="F24">
-        <v>0.954749447042532</v>
+        <v>1.026847301301135</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039084092343309</v>
+        <v>1.037051235036801</v>
       </c>
       <c r="J24">
-        <v>1.014802865186746</v>
+        <v>1.036400554859612</v>
       </c>
       <c r="K24">
-        <v>1.022334287269402</v>
+        <v>1.038597787253741</v>
       </c>
       <c r="L24">
-        <v>1.010754189660458</v>
+        <v>1.037356035137125</v>
       </c>
       <c r="M24">
-        <v>0.9696207141973813</v>
+        <v>1.030249616443963</v>
       </c>
       <c r="N24">
-        <v>1.016244001654826</v>
+        <v>1.037872362524318</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.996673590994032</v>
+        <v>1.031992563245986</v>
       </c>
       <c r="D25">
-        <v>1.016034943792557</v>
+        <v>1.036641921153986</v>
       </c>
       <c r="E25">
-        <v>1.005557975268123</v>
+        <v>1.035707609411423</v>
       </c>
       <c r="F25">
-        <v>0.9698595100041683</v>
+        <v>1.029758885322443</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042960334954647</v>
+        <v>1.037621097627511</v>
       </c>
       <c r="J25">
-        <v>1.021313422998218</v>
+        <v>1.037608388870504</v>
       </c>
       <c r="K25">
-        <v>1.028389334991462</v>
+        <v>1.03969180686734</v>
       </c>
       <c r="L25">
-        <v>1.018070619208889</v>
+        <v>1.038760429080699</v>
       </c>
       <c r="M25">
-        <v>0.9829444616057951</v>
+        <v>1.03283052193367</v>
       </c>
       <c r="N25">
-        <v>1.022763805205162</v>
+        <v>1.039081911798045</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033443141075383</v>
+        <v>1.00417553040124</v>
       </c>
       <c r="D2">
-        <v>1.037770101111458</v>
+        <v>1.021796192435678</v>
       </c>
       <c r="E2">
-        <v>1.037085900938381</v>
+        <v>1.012323130743146</v>
       </c>
       <c r="F2">
-        <v>1.032078606655924</v>
+        <v>0.9812515049086207</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038069521806609</v>
+        <v>1.045856628359452</v>
       </c>
       <c r="J2">
-        <v>1.038567839859251</v>
+        <v>1.02623206531538</v>
       </c>
       <c r="K2">
-        <v>1.040560038278691</v>
+        <v>1.032959998743383</v>
       </c>
       <c r="L2">
-        <v>1.039877791016656</v>
+        <v>1.023613413441587</v>
       </c>
       <c r="M2">
-        <v>1.034884874677332</v>
+        <v>0.9929783666531377</v>
       </c>
       <c r="N2">
-        <v>1.040042725317279</v>
+        <v>1.02768943255859</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034495350735429</v>
+        <v>1.009422958241362</v>
       </c>
       <c r="D3">
-        <v>1.038588155933879</v>
+        <v>1.025830086851665</v>
       </c>
       <c r="E3">
-        <v>1.038086392403691</v>
+        <v>1.017065967906843</v>
       </c>
       <c r="F3">
-        <v>1.03376161757437</v>
+        <v>0.9891887494984098</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038391595922896</v>
+        <v>1.047855991514014</v>
       </c>
       <c r="J3">
-        <v>1.039262244604023</v>
+        <v>1.029659998950317</v>
       </c>
       <c r="K3">
-        <v>1.041187947440163</v>
+        <v>1.036142799194213</v>
       </c>
       <c r="L3">
-        <v>1.040687512215347</v>
+        <v>1.027485045627903</v>
       </c>
       <c r="M3">
-        <v>1.036374244038986</v>
+        <v>0.9999618571865253</v>
       </c>
       <c r="N3">
-        <v>1.040738116196406</v>
+        <v>1.031122234252478</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035175733481377</v>
+        <v>1.012732756812069</v>
       </c>
       <c r="D4">
-        <v>1.039116987653382</v>
+        <v>1.028375941583432</v>
       </c>
       <c r="E4">
-        <v>1.038733661922403</v>
+        <v>1.020062240665919</v>
       </c>
       <c r="F4">
-        <v>1.034850085502957</v>
+        <v>0.9941838229275254</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038598374468225</v>
+        <v>1.049104608886601</v>
       </c>
       <c r="J4">
-        <v>1.039710542792559</v>
+        <v>1.031816271619684</v>
       </c>
       <c r="K4">
-        <v>1.041593095281353</v>
+        <v>1.038143544075758</v>
       </c>
       <c r="L4">
-        <v>1.041210733069864</v>
+        <v>1.029924414930955</v>
       </c>
       <c r="M4">
-        <v>1.037336961699244</v>
+        <v>1.004352954678501</v>
       </c>
       <c r="N4">
-        <v>1.041187051019791</v>
+        <v>1.033281569076365</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035461656154014</v>
+        <v>1.01410461572516</v>
       </c>
       <c r="D5">
-        <v>1.039339188411004</v>
+        <v>1.029431461455889</v>
       </c>
       <c r="E5">
-        <v>1.039005747541528</v>
+        <v>1.021305252903817</v>
       </c>
       <c r="F5">
-        <v>1.035307552671882</v>
+        <v>0.9962519035479347</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038684915700268</v>
+        <v>1.049619116212456</v>
       </c>
       <c r="J5">
-        <v>1.039898762343401</v>
+        <v>1.032708586089876</v>
       </c>
       <c r="K5">
-        <v>1.041763144640651</v>
+        <v>1.038971160751232</v>
       </c>
       <c r="L5">
-        <v>1.04143052318062</v>
+        <v>1.030934837335862</v>
       </c>
       <c r="M5">
-        <v>1.037741454470166</v>
+        <v>1.006170034526121</v>
       </c>
       <c r="N5">
-        <v>1.041375537863984</v>
+        <v>1.034175150735454</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.035509657411936</v>
+        <v>1.01433383428124</v>
       </c>
       <c r="D6">
-        <v>1.039376489872652</v>
+        <v>1.029607840482661</v>
       </c>
       <c r="E6">
-        <v>1.039051430393727</v>
+        <v>1.021513006994467</v>
       </c>
       <c r="F6">
-        <v>1.035384356326528</v>
+        <v>0.9965973274776474</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038699423589747</v>
+        <v>1.049704904458739</v>
       </c>
       <c r="J6">
-        <v>1.039930350899374</v>
+        <v>1.032857595144913</v>
       </c>
       <c r="K6">
-        <v>1.041791680586817</v>
+        <v>1.039109345509929</v>
       </c>
       <c r="L6">
-        <v>1.041467416857537</v>
+        <v>1.031103625595879</v>
       </c>
       <c r="M6">
-        <v>1.037809357071515</v>
+        <v>1.006473478366932</v>
       </c>
       <c r="N6">
-        <v>1.04140717127933</v>
+        <v>1.034324371400441</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035179554425245</v>
+        <v>1.012751163423224</v>
       </c>
       <c r="D7">
-        <v>1.039119957181869</v>
+        <v>1.028390102655002</v>
       </c>
       <c r="E7">
-        <v>1.038737297646444</v>
+        <v>1.020078914179584</v>
       </c>
       <c r="F7">
-        <v>1.034856198682454</v>
+        <v>0.9942115794979257</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038599532362149</v>
+        <v>1.049111524176684</v>
       </c>
       <c r="J7">
-        <v>1.039713058752738</v>
+        <v>1.031828249709402</v>
       </c>
       <c r="K7">
-        <v>1.041595368567927</v>
+        <v>1.038154655042395</v>
       </c>
       <c r="L7">
-        <v>1.041213670590285</v>
+        <v>1.029937974676278</v>
       </c>
       <c r="M7">
-        <v>1.037342367461677</v>
+        <v>1.004377346231016</v>
       </c>
       <c r="N7">
-        <v>1.041189570552921</v>
+        <v>1.033293564176343</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.033798837990086</v>
+        <v>1.005967230762038</v>
       </c>
       <c r="D8">
-        <v>1.038046671425296</v>
+        <v>1.023173192878597</v>
       </c>
       <c r="E8">
-        <v>1.037424046283184</v>
+        <v>1.013941522978949</v>
       </c>
       <c r="F8">
-        <v>1.032647507069905</v>
+        <v>0.9839642748889388</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038178705048055</v>
+        <v>1.046541903371008</v>
       </c>
       <c r="J8">
-        <v>1.038802730751661</v>
+        <v>1.027403741104171</v>
       </c>
       <c r="K8">
-        <v>1.040772482032075</v>
+        <v>1.034048157277808</v>
       </c>
       <c r="L8">
-        <v>1.040151590451215</v>
+        <v>1.024935901769984</v>
       </c>
       <c r="M8">
-        <v>1.035388425873213</v>
+        <v>0.9953659326564469</v>
       </c>
       <c r="N8">
-        <v>1.040277949781667</v>
+        <v>1.028862772261395</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031362186837383</v>
+        <v>0.9933121447081169</v>
       </c>
       <c r="D9">
-        <v>1.036151510363911</v>
+        <v>1.013455924271499</v>
       </c>
       <c r="E9">
-        <v>1.035108994569903</v>
+        <v>1.002532339496556</v>
       </c>
       <c r="F9">
-        <v>1.028750938340536</v>
+        <v>0.964735582997969</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037424683474921</v>
+        <v>1.04164951621691</v>
       </c>
       <c r="J9">
-        <v>1.037190691308793</v>
+        <v>1.019103299093627</v>
       </c>
       <c r="K9">
-        <v>1.039313593974527</v>
+        <v>1.026334396706427</v>
       </c>
       <c r="L9">
-        <v>1.038274481664023</v>
+        <v>1.015584464436449</v>
       </c>
       <c r="M9">
-        <v>1.031937346251021</v>
+        <v>0.978427943085831</v>
       </c>
       <c r="N9">
-        <v>1.038663621057887</v>
+        <v>1.020550542671123</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029735191198113</v>
+        <v>0.9843347831897686</v>
       </c>
       <c r="D10">
-        <v>1.034885404923</v>
+        <v>1.006576509786242</v>
       </c>
       <c r="E10">
-        <v>1.033564923033724</v>
+        <v>0.994468390435275</v>
       </c>
       <c r="F10">
-        <v>1.026149676863493</v>
+        <v>0.9509831543435143</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036913581740449</v>
+        <v>1.038113687742078</v>
       </c>
       <c r="J10">
-        <v>1.036110596142776</v>
+        <v>1.013184014239414</v>
       </c>
       <c r="K10">
-        <v>1.038334990546673</v>
+        <v>1.020828029944278</v>
       </c>
       <c r="L10">
-        <v>1.037019244471553</v>
+        <v>1.008938243251937</v>
       </c>
       <c r="M10">
-        <v>1.029630842641893</v>
+        <v>0.966297653056874</v>
       </c>
       <c r="N10">
-        <v>1.037581992032846</v>
+        <v>1.014622851753465</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.029030052121346</v>
+        <v>0.9803016046294725</v>
       </c>
       <c r="D11">
-        <v>1.034336523977837</v>
+        <v>1.003490106486531</v>
       </c>
       <c r="E11">
-        <v>1.032896138443653</v>
+        <v>0.9908532055131528</v>
       </c>
       <c r="F11">
-        <v>1.025022354140596</v>
+        <v>0.9447688687238198</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036690263126167</v>
+        <v>1.036510126804962</v>
       </c>
       <c r="J11">
-        <v>1.035641604533457</v>
+        <v>1.010517458002468</v>
       </c>
       <c r="K11">
-        <v>1.03790980529021</v>
+        <v>1.018346503288847</v>
       </c>
       <c r="L11">
-        <v>1.036474786798826</v>
+        <v>1.005949703342671</v>
       </c>
       <c r="M11">
-        <v>1.028630636498159</v>
+        <v>0.9608133522153811</v>
       </c>
       <c r="N11">
-        <v>1.037112334401647</v>
+        <v>1.011952508700804</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.028768033824035</v>
+        <v>0.9787798817391181</v>
       </c>
       <c r="D12">
-        <v>1.03413254658251</v>
+        <v>1.002326327587759</v>
       </c>
       <c r="E12">
-        <v>1.032647691683701</v>
+        <v>0.9894903940283226</v>
       </c>
       <c r="F12">
-        <v>1.024603462970263</v>
+        <v>0.9424179044154115</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036607010122237</v>
+        <v>1.035902877341531</v>
       </c>
       <c r="J12">
-        <v>1.035467202796281</v>
+        <v>1.009510280709182</v>
       </c>
       <c r="K12">
-        <v>1.037751654438174</v>
+        <v>1.017409094134425</v>
       </c>
       <c r="L12">
-        <v>1.036272409407586</v>
+        <v>1.004821749838323</v>
       </c>
       <c r="M12">
-        <v>1.028258885765503</v>
+        <v>0.9587381832687429</v>
       </c>
       <c r="N12">
-        <v>1.036937684994</v>
+        <v>1.010943901100237</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.028824242119842</v>
+        <v>0.9791073946584244</v>
       </c>
       <c r="D13">
-        <v>1.034176304904355</v>
+        <v>1.002576767830176</v>
       </c>
       <c r="E13">
-        <v>1.032700985758375</v>
+        <v>0.9897836500400831</v>
       </c>
       <c r="F13">
-        <v>1.024693323634251</v>
+        <v>0.9429241917692922</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036624881877424</v>
+        <v>1.036033672475565</v>
       </c>
       <c r="J13">
-        <v>1.035504621517751</v>
+        <v>1.009727099316357</v>
       </c>
       <c r="K13">
-        <v>1.037785588223141</v>
+        <v>1.017610898382086</v>
       </c>
       <c r="L13">
-        <v>1.036315826477074</v>
+        <v>1.005064530216596</v>
       </c>
       <c r="M13">
-        <v>1.028338638080971</v>
+        <v>0.9591850924961112</v>
       </c>
       <c r="N13">
-        <v>1.036975156854347</v>
+        <v>1.011161027614703</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.029008395624223</v>
+        <v>0.9801763108771728</v>
       </c>
       <c r="D14">
-        <v>1.034319665159867</v>
+        <v>1.003394269464827</v>
       </c>
       <c r="E14">
-        <v>1.032875602386291</v>
+        <v>0.990740971287048</v>
       </c>
       <c r="F14">
-        <v>1.024987731646735</v>
+        <v>0.9445754316746114</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036683387583123</v>
+        <v>1.036460172775007</v>
       </c>
       <c r="J14">
-        <v>1.035627192466905</v>
+        <v>1.010434552219504</v>
       </c>
       <c r="K14">
-        <v>1.0378967369482</v>
+        <v>1.018269342705212</v>
       </c>
       <c r="L14">
-        <v>1.036458061117786</v>
+        <v>1.005856838744708</v>
       </c>
       <c r="M14">
-        <v>1.028599912197911</v>
+        <v>0.9606426145592877</v>
       </c>
       <c r="N14">
-        <v>1.037097901868307</v>
+        <v>1.011869485182118</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.029121845590908</v>
+        <v>0.9808317215163591</v>
       </c>
       <c r="D15">
-        <v>1.034407981050328</v>
+        <v>1.003895622188738</v>
       </c>
       <c r="E15">
-        <v>1.032983185378532</v>
+        <v>0.9913281168939526</v>
       </c>
       <c r="F15">
-        <v>1.025169105548184</v>
+        <v>0.945587036907092</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036719394766891</v>
+        <v>1.03672139162949</v>
       </c>
       <c r="J15">
-        <v>1.035702686273198</v>
+        <v>1.010868187701617</v>
       </c>
       <c r="K15">
-        <v>1.037965190406085</v>
+        <v>1.018672923489274</v>
       </c>
       <c r="L15">
-        <v>1.036545677766973</v>
+        <v>1.006342597655159</v>
       </c>
       <c r="M15">
-        <v>1.028760861133629</v>
+        <v>0.9615354957344346</v>
       </c>
       <c r="N15">
-        <v>1.037173502884465</v>
+        <v>1.012303736476355</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.029781975300137</v>
+        <v>0.9845992368026502</v>
       </c>
       <c r="D16">
-        <v>1.034921818579643</v>
+        <v>1.006778979138093</v>
       </c>
       <c r="E16">
-        <v>1.033609303892835</v>
+        <v>0.9947055994186056</v>
       </c>
       <c r="F16">
-        <v>1.026224472564731</v>
+        <v>0.9513898030981994</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036928360281361</v>
+        <v>1.038218523166472</v>
       </c>
       <c r="J16">
-        <v>1.036141693979159</v>
+        <v>1.013358709183657</v>
       </c>
       <c r="K16">
-        <v>1.038363178172694</v>
+        <v>1.020990584962179</v>
       </c>
       <c r="L16">
-        <v>1.037055358568867</v>
+        <v>1.009134147429352</v>
       </c>
       <c r="M16">
-        <v>1.029697191269401</v>
+        <v>0.9666564776525485</v>
       </c>
       <c r="N16">
-        <v>1.037613134031723</v>
+        <v>1.014797794784566</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.030195884531358</v>
+        <v>0.9869222900509173</v>
       </c>
       <c r="D17">
-        <v>1.035243960792249</v>
+        <v>1.008558032242707</v>
       </c>
       <c r="E17">
-        <v>1.034001999102647</v>
+        <v>0.9967901973726242</v>
       </c>
       <c r="F17">
-        <v>1.026886213102772</v>
+        <v>0.9549577887476406</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037058900602357</v>
+        <v>1.039137733757689</v>
       </c>
       <c r="J17">
-        <v>1.036416721887937</v>
+        <v>1.014892470472766</v>
       </c>
       <c r="K17">
-        <v>1.038612438040007</v>
+        <v>1.02241765379537</v>
       </c>
       <c r="L17">
-        <v>1.037374817311271</v>
+        <v>1.010854741097738</v>
       </c>
       <c r="M17">
-        <v>1.030284125893637</v>
+        <v>0.9698045173925574</v>
       </c>
       <c r="N17">
-        <v>1.037888552511678</v>
+        <v>1.016333734190631</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.030437249256041</v>
+        <v>0.9882633323219254</v>
       </c>
       <c r="D18">
-        <v>1.035431798355089</v>
+        <v>1.009585431595628</v>
       </c>
       <c r="E18">
-        <v>1.034231033214826</v>
+        <v>0.9979943017987232</v>
       </c>
       <c r="F18">
-        <v>1.027272103219706</v>
+        <v>0.957014182431848</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03713484885713</v>
+        <v>1.039666948846608</v>
       </c>
       <c r="J18">
-        <v>1.036577015372905</v>
+        <v>1.015777188898169</v>
       </c>
       <c r="K18">
-        <v>1.038757687909456</v>
+        <v>1.023240734133332</v>
       </c>
       <c r="L18">
-        <v>1.037561062404559</v>
+        <v>1.011847746251031</v>
       </c>
       <c r="M18">
-        <v>1.030626333169913</v>
+        <v>0.9716185882683155</v>
       </c>
       <c r="N18">
-        <v>1.03804907363178</v>
+        <v>1.017219709017677</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.030519538020688</v>
+        <v>0.9887182746124229</v>
       </c>
       <c r="D19">
-        <v>1.035495835534633</v>
+        <v>1.009934036557238</v>
       </c>
       <c r="E19">
-        <v>1.034309124863377</v>
+        <v>0.9984029085403396</v>
       </c>
       <c r="F19">
-        <v>1.027403666460838</v>
+        <v>0.957711266912504</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037160712418263</v>
+        <v>1.039846240124815</v>
       </c>
       <c r="J19">
-        <v>1.036631650045542</v>
+        <v>1.016077209063203</v>
       </c>
       <c r="K19">
-        <v>1.038807190789294</v>
+        <v>1.023519835082467</v>
       </c>
       <c r="L19">
-        <v>1.037624551987324</v>
+        <v>1.012184575132542</v>
       </c>
       <c r="M19">
-        <v>1.030742993207136</v>
+        <v>0.9722334779590364</v>
       </c>
       <c r="N19">
-        <v>1.038103785891919</v>
+        <v>1.017520155245757</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.030151482367723</v>
+        <v>0.9866745035779274</v>
       </c>
       <c r="D20">
-        <v>1.035209404457869</v>
+        <v>1.008368229444851</v>
       </c>
       <c r="E20">
-        <v>1.033959868533564</v>
+        <v>0.9965677707288072</v>
       </c>
       <c r="F20">
-        <v>1.026815224181161</v>
+        <v>0.9545775633266093</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037044914903013</v>
+        <v>1.03903983445296</v>
       </c>
       <c r="J20">
-        <v>1.036387227002892</v>
+        <v>1.014728944197635</v>
       </c>
       <c r="K20">
-        <v>1.038585709221467</v>
+        <v>1.022265512481752</v>
       </c>
       <c r="L20">
-        <v>1.037340551709808</v>
+        <v>1.010671241432208</v>
       </c>
       <c r="M20">
-        <v>1.030221168083334</v>
+        <v>0.9694690733176776</v>
       </c>
       <c r="N20">
-        <v>1.037859015740512</v>
+        <v>1.016169975689433</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.028954169737044</v>
+        <v>0.9798622083122089</v>
       </c>
       <c r="D21">
-        <v>1.034277451867622</v>
+        <v>1.003154024800321</v>
       </c>
       <c r="E21">
-        <v>1.032824182993502</v>
+        <v>0.9904596275644668</v>
       </c>
       <c r="F21">
-        <v>1.024901040131331</v>
+        <v>0.944090393838145</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036666167468863</v>
+        <v>1.036334905895145</v>
       </c>
       <c r="J21">
-        <v>1.035591103838473</v>
+        <v>1.01022669588933</v>
       </c>
       <c r="K21">
-        <v>1.037864012450119</v>
+        <v>1.018075888579851</v>
       </c>
       <c r="L21">
-        <v>1.036416180482093</v>
+        <v>1.00562402783663</v>
       </c>
       <c r="M21">
-        <v>1.028522979886578</v>
+        <v>0.960214489152902</v>
       </c>
       <c r="N21">
-        <v>1.037061761989883</v>
+        <v>1.011661333672115</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.028200802227122</v>
+        <v>0.9754414026792261</v>
       </c>
       <c r="D22">
-        <v>1.033690925424945</v>
+        <v>0.9997745696517046</v>
       </c>
       <c r="E22">
-        <v>1.03210995580103</v>
+        <v>0.9865028254511116</v>
       </c>
       <c r="F22">
-        <v>1.023696625012852</v>
+        <v>0.9372474176224331</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03642628318367</v>
+        <v>1.034566588535056</v>
       </c>
       <c r="J22">
-        <v>1.035089406888714</v>
+        <v>1.007298664159501</v>
       </c>
       <c r="K22">
-        <v>1.037408990465987</v>
+        <v>1.015350493684473</v>
       </c>
       <c r="L22">
-        <v>1.035834171724871</v>
+        <v>1.002346491157595</v>
       </c>
       <c r="M22">
-        <v>1.027453928936851</v>
+        <v>0.9541736736999227</v>
       </c>
       <c r="N22">
-        <v>1.03655935257291</v>
+        <v>1.008729143801379</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.028600231326533</v>
+        <v>0.977798619800732</v>
       </c>
       <c r="D23">
-        <v>1.034001908664863</v>
+        <v>1.001576096321465</v>
       </c>
       <c r="E23">
-        <v>1.032488598438143</v>
+        <v>0.9886119498312275</v>
       </c>
       <c r="F23">
-        <v>1.024335195854719</v>
+        <v>0.940900013731044</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036553616607716</v>
+        <v>1.035510678752882</v>
       </c>
       <c r="J23">
-        <v>1.035355474778511</v>
+        <v>1.008860511855633</v>
       </c>
       <c r="K23">
-        <v>1.037650326326263</v>
+        <v>1.016804305740663</v>
       </c>
       <c r="L23">
-        <v>1.036142783830502</v>
+        <v>1.004094302200404</v>
       </c>
       <c r="M23">
-        <v>1.028020782093317</v>
+        <v>0.957398265810526</v>
       </c>
       <c r="N23">
-        <v>1.036825798309629</v>
+        <v>1.010293209500386</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.030171545983712</v>
+        <v>0.9867865106201577</v>
       </c>
       <c r="D24">
-        <v>1.035225019170788</v>
+        <v>1.008454024877615</v>
       </c>
       <c r="E24">
-        <v>1.033978905580492</v>
+        <v>0.9966683121348296</v>
       </c>
       <c r="F24">
-        <v>1.026847301301135</v>
+        <v>0.9547494470425326</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037051235036801</v>
+        <v>1.039084092343309</v>
       </c>
       <c r="J24">
-        <v>1.036400554859612</v>
+        <v>1.014802865186746</v>
       </c>
       <c r="K24">
-        <v>1.038597787253741</v>
+        <v>1.022334287269402</v>
       </c>
       <c r="L24">
-        <v>1.037356035137125</v>
+        <v>1.010754189660459</v>
       </c>
       <c r="M24">
-        <v>1.030249616443963</v>
+        <v>0.9696207141973818</v>
       </c>
       <c r="N24">
-        <v>1.037872362524318</v>
+        <v>1.016244001654827</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.031992563245986</v>
+        <v>0.9966735909940309</v>
       </c>
       <c r="D25">
-        <v>1.036641921153986</v>
+        <v>1.016034943792556</v>
       </c>
       <c r="E25">
-        <v>1.035707609411423</v>
+        <v>1.005557975268121</v>
       </c>
       <c r="F25">
-        <v>1.029758885322443</v>
+        <v>0.9698595100041675</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037621097627511</v>
+        <v>1.042960334954647</v>
       </c>
       <c r="J25">
-        <v>1.037608388870504</v>
+        <v>1.021313422998217</v>
       </c>
       <c r="K25">
-        <v>1.03969180686734</v>
+        <v>1.028389334991461</v>
       </c>
       <c r="L25">
-        <v>1.038760429080699</v>
+        <v>1.018070619208888</v>
       </c>
       <c r="M25">
-        <v>1.03283052193367</v>
+        <v>0.9829444616057943</v>
       </c>
       <c r="N25">
-        <v>1.039081911798045</v>
+        <v>1.022763805205161</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.00417553040124</v>
+        <v>1.018948882024696</v>
       </c>
       <c r="D2">
-        <v>1.021796192435678</v>
+        <v>1.034577920873186</v>
       </c>
       <c r="E2">
-        <v>1.012323130743146</v>
+        <v>1.027002027813222</v>
       </c>
       <c r="F2">
-        <v>0.9812515049086207</v>
+        <v>1.034013832759709</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045856628359452</v>
+        <v>1.055157211357609</v>
       </c>
       <c r="J2">
-        <v>1.02623206531538</v>
+        <v>1.040577238358879</v>
       </c>
       <c r="K2">
-        <v>1.032959998743383</v>
+        <v>1.045575665497618</v>
       </c>
       <c r="L2">
-        <v>1.023613413441587</v>
+        <v>1.038097574510149</v>
       </c>
       <c r="M2">
-        <v>0.9929783666531377</v>
+        <v>1.045018797833435</v>
       </c>
       <c r="N2">
-        <v>1.02768943255859</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016442229843377</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.044201739921687</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.043296219267012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009422958241362</v>
+        <v>1.023412438097706</v>
       </c>
       <c r="D3">
-        <v>1.025830086851665</v>
+        <v>1.037634557444382</v>
       </c>
       <c r="E3">
-        <v>1.017065967906843</v>
+        <v>1.030981609272209</v>
       </c>
       <c r="F3">
-        <v>0.9891887494984098</v>
+        <v>1.037097833003722</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047855991514014</v>
+        <v>1.056644634952243</v>
       </c>
       <c r="J3">
-        <v>1.029659998950317</v>
+        <v>1.043284585115568</v>
       </c>
       <c r="K3">
-        <v>1.036142799194213</v>
+        <v>1.04780751921927</v>
       </c>
       <c r="L3">
-        <v>1.027485045627903</v>
+        <v>1.041232846233232</v>
       </c>
       <c r="M3">
-        <v>0.9999618571865253</v>
+        <v>1.047277063532825</v>
       </c>
       <c r="N3">
-        <v>1.031122234252478</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017444278623194</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045988994511884</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.044871668617978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012732756812069</v>
+        <v>1.026242226672217</v>
       </c>
       <c r="D4">
-        <v>1.028375941583432</v>
+        <v>1.039575987325982</v>
       </c>
       <c r="E4">
-        <v>1.020062240665919</v>
+        <v>1.033509569016671</v>
       </c>
       <c r="F4">
-        <v>0.9941838229275254</v>
+        <v>1.039061533804381</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049104608886601</v>
+        <v>1.057577961954453</v>
       </c>
       <c r="J4">
-        <v>1.031816271619684</v>
+        <v>1.044997668139073</v>
       </c>
       <c r="K4">
-        <v>1.038143544075758</v>
+        <v>1.049219123241377</v>
       </c>
       <c r="L4">
-        <v>1.029924414930955</v>
+        <v>1.043219709349852</v>
       </c>
       <c r="M4">
-        <v>1.004352954678501</v>
+        <v>1.048710314631332</v>
       </c>
       <c r="N4">
-        <v>1.033281569076365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.018077681968484</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.047123307233604</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045870669982662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01410461572516</v>
+        <v>1.027424282944166</v>
       </c>
       <c r="D5">
-        <v>1.029431461455889</v>
+        <v>1.040390240989952</v>
       </c>
       <c r="E5">
-        <v>1.021305252903817</v>
+        <v>1.034567319269199</v>
       </c>
       <c r="F5">
-        <v>0.9962519035479347</v>
+        <v>1.039882463642151</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049619116212456</v>
+        <v>1.057967416898788</v>
       </c>
       <c r="J5">
-        <v>1.032708586089876</v>
+        <v>1.045714628126914</v>
       </c>
       <c r="K5">
-        <v>1.038971160751232</v>
+        <v>1.049811447723801</v>
       </c>
       <c r="L5">
-        <v>1.030934837335862</v>
+        <v>1.04405110344247</v>
       </c>
       <c r="M5">
-        <v>1.006170034526121</v>
+        <v>1.049309093167398</v>
       </c>
       <c r="N5">
-        <v>1.034175150735454</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018344348954042</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.047597195843476</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046296597812804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01433383428124</v>
+        <v>1.027629189356516</v>
       </c>
       <c r="D6">
-        <v>1.029607840482661</v>
+        <v>1.040534420334086</v>
       </c>
       <c r="E6">
-        <v>1.021513006994467</v>
+        <v>1.034751474610412</v>
       </c>
       <c r="F6">
-        <v>0.9965973274776474</v>
+        <v>1.040023259194982</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049704904458739</v>
+        <v>1.0580371581442</v>
       </c>
       <c r="J6">
-        <v>1.032857595144913</v>
+        <v>1.045841535892085</v>
       </c>
       <c r="K6">
-        <v>1.039109345509929</v>
+        <v>1.049918330352732</v>
       </c>
       <c r="L6">
-        <v>1.031103625595879</v>
+        <v>1.044197243151664</v>
       </c>
       <c r="M6">
-        <v>1.006473478366932</v>
+        <v>1.049412603031407</v>
       </c>
       <c r="N6">
-        <v>1.034324371400441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018393655052855</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.047679116159868</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046380842046226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012751163423224</v>
+        <v>1.0262776036833</v>
       </c>
       <c r="D7">
-        <v>1.028390102655002</v>
+        <v>1.039608358636104</v>
       </c>
       <c r="E7">
-        <v>1.020078914179584</v>
+        <v>1.033543188283214</v>
       </c>
       <c r="F7">
-        <v>0.9942115794979257</v>
+        <v>1.039081691597076</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049111524176684</v>
+        <v>1.057596005605366</v>
       </c>
       <c r="J7">
-        <v>1.031828249709402</v>
+        <v>1.045026347325116</v>
       </c>
       <c r="K7">
-        <v>1.038154655042395</v>
+        <v>1.0492482904808</v>
       </c>
       <c r="L7">
-        <v>1.029937974676278</v>
+        <v>1.043250083223254</v>
       </c>
       <c r="M7">
-        <v>1.004377346231016</v>
+        <v>1.048727400087119</v>
       </c>
       <c r="N7">
-        <v>1.033293564176343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.018094132197107</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.047136829103422</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045911240527282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005967230762038</v>
+        <v>1.02049473511118</v>
       </c>
       <c r="D8">
-        <v>1.023173192878597</v>
+        <v>1.035645768643489</v>
       </c>
       <c r="E8">
-        <v>1.013941522978949</v>
+        <v>1.028381761801973</v>
       </c>
       <c r="F8">
-        <v>0.9839642748889388</v>
+        <v>1.035074522734955</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046541903371008</v>
+        <v>1.055682260090746</v>
       </c>
       <c r="J8">
-        <v>1.027403741104171</v>
+        <v>1.041524683781506</v>
       </c>
       <c r="K8">
-        <v>1.034048157277808</v>
+        <v>1.046363609156983</v>
       </c>
       <c r="L8">
-        <v>1.024935901769984</v>
+        <v>1.039190532646198</v>
       </c>
       <c r="M8">
-        <v>0.9953659326564469</v>
+        <v>1.045799456467881</v>
       </c>
       <c r="N8">
-        <v>1.028862772261395</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016800724357083</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.044819575476467</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043876105877727</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9933121447081169</v>
+        <v>1.009801987350445</v>
       </c>
       <c r="D9">
-        <v>1.013455924271499</v>
+        <v>1.028336681848089</v>
       </c>
       <c r="E9">
-        <v>1.002532339496556</v>
+        <v>1.018876199480925</v>
       </c>
       <c r="F9">
-        <v>0.964735582997969</v>
+        <v>1.027743125799322</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04164951621691</v>
+        <v>1.052058179526486</v>
       </c>
       <c r="J9">
-        <v>1.019103299093627</v>
+        <v>1.035013297795892</v>
       </c>
       <c r="K9">
-        <v>1.026334396706427</v>
+        <v>1.040986156963202</v>
       </c>
       <c r="L9">
-        <v>1.015584464436449</v>
+        <v>1.031670271139121</v>
       </c>
       <c r="M9">
-        <v>0.978427943085831</v>
+        <v>1.04040157326945</v>
       </c>
       <c r="N9">
-        <v>1.020550542671123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01438088585263</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040547525716439</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.04007076520804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9843347831897686</v>
+        <v>1.002449351709833</v>
       </c>
       <c r="D10">
-        <v>1.006576509786242</v>
+        <v>1.023352805149657</v>
       </c>
       <c r="E10">
-        <v>0.994468390435275</v>
+        <v>1.012383172798847</v>
       </c>
       <c r="F10">
-        <v>0.9509831543435143</v>
+        <v>1.022912817426192</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038113687742078</v>
+        <v>1.049557087144872</v>
       </c>
       <c r="J10">
-        <v>1.013184014239414</v>
+        <v>1.030566126202714</v>
       </c>
       <c r="K10">
-        <v>1.020828029944278</v>
+        <v>1.037312841516826</v>
       </c>
       <c r="L10">
-        <v>1.008938243251937</v>
+        <v>1.026532387679413</v>
       </c>
       <c r="M10">
-        <v>0.966297653056874</v>
+        <v>1.036880340804825</v>
       </c>
       <c r="N10">
-        <v>1.014622851753465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012757160429315</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037812181085165</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037490262954832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9803016046294725</v>
+        <v>1.000150126927007</v>
       </c>
       <c r="D11">
-        <v>1.003490106486531</v>
+        <v>1.021932930723645</v>
       </c>
       <c r="E11">
-        <v>0.9908532055131528</v>
+        <v>1.010463090904898</v>
       </c>
       <c r="F11">
-        <v>0.9447688687238198</v>
+        <v>1.022690056283768</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036510126804962</v>
+        <v>1.049061250788555</v>
       </c>
       <c r="J11">
-        <v>1.010517458002468</v>
+        <v>1.029516661776925</v>
       </c>
       <c r="K11">
-        <v>1.018346503288847</v>
+        <v>1.036452747540317</v>
       </c>
       <c r="L11">
-        <v>1.005949703342671</v>
+        <v>1.025190349843224</v>
       </c>
       <c r="M11">
-        <v>0.9608133522153811</v>
+        <v>1.037196392294225</v>
       </c>
       <c r="N11">
-        <v>1.011952508700804</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012627632779881</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.038498497449126</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036914897244304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9787798817391181</v>
+        <v>0.9996017005573473</v>
       </c>
       <c r="D12">
-        <v>1.002326327587759</v>
+        <v>1.021650352318082</v>
       </c>
       <c r="E12">
-        <v>0.9894903940283226</v>
+        <v>1.010054124135079</v>
       </c>
       <c r="F12">
-        <v>0.9424179044154115</v>
+        <v>1.023249452819671</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035902877341531</v>
+        <v>1.049073711369693</v>
       </c>
       <c r="J12">
-        <v>1.009510280709182</v>
+        <v>1.029422926701911</v>
       </c>
       <c r="K12">
-        <v>1.017409094134425</v>
+        <v>1.03637419702536</v>
       </c>
       <c r="L12">
-        <v>1.004821749838323</v>
+        <v>1.024991205072102</v>
       </c>
       <c r="M12">
-        <v>0.9587381832687429</v>
+        <v>1.037944385540414</v>
       </c>
       <c r="N12">
-        <v>1.010943901100237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012788211993377</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039416324628854</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.036859359763491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9791073946584244</v>
+        <v>1.000389391630717</v>
       </c>
       <c r="D13">
-        <v>1.002576767830176</v>
+        <v>1.022250003282901</v>
       </c>
       <c r="E13">
-        <v>0.9897836500400831</v>
+        <v>1.010803938431005</v>
       </c>
       <c r="F13">
-        <v>0.9429241917692922</v>
+        <v>1.024478568081368</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036033672475565</v>
+        <v>1.049498940401198</v>
       </c>
       <c r="J13">
-        <v>1.009727099316357</v>
+        <v>1.030084720051772</v>
       </c>
       <c r="K13">
-        <v>1.017610898382086</v>
+        <v>1.036920346228358</v>
       </c>
       <c r="L13">
-        <v>1.005064530216596</v>
+        <v>1.025683689449392</v>
       </c>
       <c r="M13">
-        <v>0.9591850924961112</v>
+        <v>1.039108845925415</v>
       </c>
       <c r="N13">
-        <v>1.011161027614703</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.013199692666055</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040613422190839</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.037243017606877</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9801763108771728</v>
+        <v>1.00153698834102</v>
       </c>
       <c r="D14">
-        <v>1.003394269464827</v>
+        <v>1.023063415539253</v>
       </c>
       <c r="E14">
-        <v>0.990740971287048</v>
+        <v>1.01184496668081</v>
       </c>
       <c r="F14">
-        <v>0.9445754316746114</v>
+        <v>1.025626537162897</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036460172775007</v>
+        <v>1.049977537666331</v>
       </c>
       <c r="J14">
-        <v>1.010434552219504</v>
+        <v>1.030881529182259</v>
       </c>
       <c r="K14">
-        <v>1.018269342705212</v>
+        <v>1.037579529771925</v>
       </c>
       <c r="L14">
-        <v>1.005856838744708</v>
+        <v>1.026563589346211</v>
       </c>
       <c r="M14">
-        <v>0.9606426145592877</v>
+        <v>1.040097189845895</v>
       </c>
       <c r="N14">
-        <v>1.011869485182118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.013597495156906</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041567793249044</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.0377104996672</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,81 +1122,105 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9808317215163591</v>
+        <v>1.002123092655557</v>
       </c>
       <c r="D15">
-        <v>1.003895622188738</v>
+        <v>1.023468958145904</v>
       </c>
       <c r="E15">
-        <v>0.9913281168939526</v>
+        <v>1.012367216675063</v>
       </c>
       <c r="F15">
-        <v>0.945587036907092</v>
+        <v>1.026087993867411</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03672139162949</v>
+        <v>1.050196168547708</v>
       </c>
       <c r="J15">
-        <v>1.010868187701617</v>
+        <v>1.031257258414417</v>
       </c>
       <c r="K15">
-        <v>1.018672923489274</v>
+        <v>1.037891905029186</v>
       </c>
       <c r="L15">
-        <v>1.006342597655159</v>
+        <v>1.026988960740708</v>
       </c>
       <c r="M15">
-        <v>0.9615354957344346</v>
+        <v>1.040464854680174</v>
       </c>
       <c r="N15">
-        <v>1.012303736476355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.013758065388141</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041895882734831</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.037937208719684</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9845992368026502</v>
+        <v>1.005079571326831</v>
       </c>
       <c r="D16">
-        <v>1.006778979138093</v>
+        <v>1.025460050721503</v>
       </c>
       <c r="E16">
-        <v>0.9947055994186056</v>
+        <v>1.014962575182906</v>
       </c>
       <c r="F16">
-        <v>0.9513898030981994</v>
+        <v>1.027940815635492</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038218523166472</v>
+        <v>1.051186653954994</v>
       </c>
       <c r="J16">
-        <v>1.013358709183657</v>
+        <v>1.033016948985665</v>
       </c>
       <c r="K16">
-        <v>1.020990584962179</v>
+        <v>1.0393489700752</v>
       </c>
       <c r="L16">
-        <v>1.009134147429352</v>
+        <v>1.029030930382599</v>
       </c>
       <c r="M16">
-        <v>0.9666564776525485</v>
+        <v>1.041788020822391</v>
       </c>
       <c r="N16">
-        <v>1.014797794784566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.014366492392629</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04290305433854</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.03897054878917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9869222900509173</v>
+        <v>1.006755013244365</v>
       </c>
       <c r="D17">
-        <v>1.008558032242707</v>
+        <v>1.026569317802826</v>
       </c>
       <c r="E17">
-        <v>0.9967901973726242</v>
+        <v>1.016417866903367</v>
       </c>
       <c r="F17">
-        <v>0.9549577887476406</v>
+        <v>1.028761436268702</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039137733757689</v>
+        <v>1.05169810741084</v>
       </c>
       <c r="J17">
-        <v>1.014892470472766</v>
+        <v>1.033956058538465</v>
       </c>
       <c r="K17">
-        <v>1.02241765379537</v>
+        <v>1.040126994021763</v>
       </c>
       <c r="L17">
-        <v>1.010854741097738</v>
+        <v>1.030144027475491</v>
       </c>
       <c r="M17">
-        <v>0.9698045173925574</v>
+        <v>1.042283290657418</v>
       </c>
       <c r="N17">
-        <v>1.016333734190631</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.014628043418911</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043165709142089</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.039523210226368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9882633323219254</v>
+        <v>1.00743767804844</v>
       </c>
       <c r="D18">
-        <v>1.009585431595628</v>
+        <v>1.026976273969688</v>
       </c>
       <c r="E18">
-        <v>0.9979943017987232</v>
+        <v>1.01697648509151</v>
       </c>
       <c r="F18">
-        <v>0.957014182431848</v>
+        <v>1.028649657475662</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039666948846608</v>
+        <v>1.051808065230771</v>
       </c>
       <c r="J18">
-        <v>1.015777188898169</v>
+        <v>1.03422261396627</v>
       </c>
       <c r="K18">
-        <v>1.023240734133332</v>
+        <v>1.040345059944703</v>
       </c>
       <c r="L18">
-        <v>1.011847746251031</v>
+        <v>1.030508478100638</v>
       </c>
       <c r="M18">
-        <v>0.9716185882683155</v>
+        <v>1.041991529619346</v>
       </c>
       <c r="N18">
-        <v>1.017219709017677</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.014584781479739</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042697783457094</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.039665803325699</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9887182746124229</v>
+        <v>1.007213785689969</v>
       </c>
       <c r="D19">
-        <v>1.009934036557238</v>
+        <v>1.026748911797898</v>
       </c>
       <c r="E19">
-        <v>0.9984029085403396</v>
+        <v>1.016714858589417</v>
       </c>
       <c r="F19">
-        <v>0.957711266912504</v>
+        <v>1.027639294049411</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039846240124815</v>
+        <v>1.05154976993853</v>
       </c>
       <c r="J19">
-        <v>1.016077209063203</v>
+        <v>1.033873956905494</v>
       </c>
       <c r="K19">
-        <v>1.023519835082467</v>
+        <v>1.040059206812384</v>
       </c>
       <c r="L19">
-        <v>1.012184575132542</v>
+        <v>1.030188146354923</v>
       </c>
       <c r="M19">
-        <v>0.9722334779590364</v>
+        <v>1.040935322882985</v>
       </c>
       <c r="N19">
-        <v>1.017520155245757</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.014278810695907</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041537602260729</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.039470065577367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9866745035779274</v>
+        <v>1.004416284963478</v>
       </c>
       <c r="D20">
-        <v>1.008368229444851</v>
+        <v>1.024705513699347</v>
       </c>
       <c r="E20">
-        <v>0.9965677707288072</v>
+        <v>1.01412418277889</v>
       </c>
       <c r="F20">
-        <v>0.9545775633266093</v>
+        <v>1.02419835768387</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03903983445296</v>
+        <v>1.05024718984002</v>
       </c>
       <c r="J20">
-        <v>1.014728944197635</v>
+        <v>1.031778021340234</v>
       </c>
       <c r="K20">
-        <v>1.022265512481752</v>
+        <v>1.038327425199323</v>
       </c>
       <c r="L20">
-        <v>1.010671241432208</v>
+        <v>1.027923140297717</v>
       </c>
       <c r="M20">
-        <v>0.9694690733176776</v>
+        <v>1.03782864745761</v>
       </c>
       <c r="N20">
-        <v>1.016169975689433</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.013219115251202</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03855210902986</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.038249554511451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9798622083122089</v>
+        <v>0.9986846503748293</v>
       </c>
       <c r="D21">
-        <v>1.003154024800321</v>
+        <v>1.020800637119418</v>
       </c>
       <c r="E21">
-        <v>0.9904596275644668</v>
+        <v>1.009053111337139</v>
       </c>
       <c r="F21">
-        <v>0.944090393838145</v>
+        <v>1.020202078712072</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036334905895145</v>
+        <v>1.048221137603469</v>
       </c>
       <c r="J21">
-        <v>1.01022669588933</v>
+        <v>1.028237468941991</v>
       </c>
       <c r="K21">
-        <v>1.018075888579851</v>
+        <v>1.035398367454041</v>
       </c>
       <c r="L21">
-        <v>1.00562402783663</v>
+        <v>1.023864975882999</v>
       </c>
       <c r="M21">
-        <v>0.960214489152902</v>
+        <v>1.034810564646666</v>
       </c>
       <c r="N21">
-        <v>1.011661333672115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011877301020277</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036122603896396</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036181845878208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9754414026792261</v>
+        <v>0.9950321986759431</v>
       </c>
       <c r="D22">
-        <v>0.9997745696517046</v>
+        <v>1.018318061643831</v>
       </c>
       <c r="E22">
-        <v>0.9865028254511116</v>
+        <v>1.005832757909122</v>
       </c>
       <c r="F22">
-        <v>0.9372474176224331</v>
+        <v>1.017753819788314</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034566588535056</v>
+        <v>1.046932471209901</v>
       </c>
       <c r="J22">
-        <v>1.007298664159501</v>
+        <v>1.025991992673543</v>
       </c>
       <c r="K22">
-        <v>1.015350493684473</v>
+        <v>1.033535163736518</v>
       </c>
       <c r="L22">
-        <v>1.002346491157595</v>
+        <v>1.021289545565462</v>
       </c>
       <c r="M22">
-        <v>0.9541736736999227</v>
+        <v>1.032981588039823</v>
       </c>
       <c r="N22">
-        <v>1.008729143801379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011032570412684</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034675081200529</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034851007752755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.977798619800732</v>
+        <v>0.9969563919873433</v>
       </c>
       <c r="D23">
-        <v>1.001576096321465</v>
+        <v>1.019617907268743</v>
       </c>
       <c r="E23">
-        <v>0.9886119498312275</v>
+        <v>1.007526448702492</v>
       </c>
       <c r="F23">
-        <v>0.940900013731044</v>
+        <v>1.019046588334247</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035510678752882</v>
+        <v>1.047606615153433</v>
       </c>
       <c r="J23">
-        <v>1.008860511855633</v>
+        <v>1.027168169681875</v>
       </c>
       <c r="K23">
-        <v>1.016804305740663</v>
+        <v>1.034506444337551</v>
       </c>
       <c r="L23">
-        <v>1.004094302200404</v>
+        <v>1.022640873225934</v>
       </c>
       <c r="M23">
-        <v>0.957398265810526</v>
+        <v>1.033945641317828</v>
       </c>
       <c r="N23">
-        <v>1.010293209500386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011468338615681</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035438070551949</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035528118685837</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9867865106201577</v>
+        <v>1.004385248870279</v>
       </c>
       <c r="D24">
-        <v>1.008454024877615</v>
+        <v>1.024660568010484</v>
       </c>
       <c r="E24">
-        <v>0.9966683121348296</v>
+        <v>1.014083611034114</v>
       </c>
       <c r="F24">
-        <v>0.9547494470425326</v>
+        <v>1.024056647890297</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039084092343309</v>
+        <v>1.050199170255212</v>
       </c>
       <c r="J24">
-        <v>1.014802865186746</v>
+        <v>1.031715531000574</v>
       </c>
       <c r="K24">
-        <v>1.022334287269402</v>
+        <v>1.038268027706012</v>
       </c>
       <c r="L24">
-        <v>1.010754189660459</v>
+        <v>1.02786783576042</v>
       </c>
       <c r="M24">
-        <v>0.9696207141973818</v>
+        <v>1.03767407397712</v>
       </c>
       <c r="N24">
-        <v>1.016244001654827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.013163436647523</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03838888980215</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.038180239926014</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9966735909940309</v>
+        <v>1.012658426995196</v>
       </c>
       <c r="D25">
-        <v>1.016034943792556</v>
+        <v>1.030297985310134</v>
       </c>
       <c r="E25">
-        <v>1.005557975268121</v>
+        <v>1.021413812884533</v>
       </c>
       <c r="F25">
-        <v>0.9698595100041675</v>
+        <v>1.029685770518432</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042960334954647</v>
+        <v>1.05304477273893</v>
       </c>
       <c r="J25">
-        <v>1.021313422998217</v>
+        <v>1.036767167271538</v>
       </c>
       <c r="K25">
-        <v>1.028389334991461</v>
+        <v>1.04244349019006</v>
       </c>
       <c r="L25">
-        <v>1.018070619208888</v>
+        <v>1.033688558980079</v>
       </c>
       <c r="M25">
-        <v>0.9829444616057943</v>
+        <v>1.04184009086093</v>
       </c>
       <c r="N25">
-        <v>1.022763805205161</v>
+        <v>1.015043604386268</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041686014967514</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.041129627931216</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_8/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018948882024696</v>
+        <v>1.017730073708222</v>
       </c>
       <c r="D2">
-        <v>1.034577920873186</v>
+        <v>1.03276406852629</v>
       </c>
       <c r="E2">
-        <v>1.027002027813222</v>
+        <v>1.025790761930453</v>
       </c>
       <c r="F2">
-        <v>1.034013832759709</v>
+        <v>1.033396745501099</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055157211357609</v>
+        <v>1.054174633665542</v>
       </c>
       <c r="J2">
-        <v>1.040577238358879</v>
+        <v>1.039393111409939</v>
       </c>
       <c r="K2">
-        <v>1.045575665497618</v>
+        <v>1.043785065979663</v>
       </c>
       <c r="L2">
-        <v>1.038097574510149</v>
+        <v>1.036902113425624</v>
       </c>
       <c r="M2">
-        <v>1.045018797833435</v>
+        <v>1.044409620710942</v>
       </c>
       <c r="N2">
-        <v>1.016442229843377</v>
+        <v>1.017079520997821</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.044201739921687</v>
+        <v>1.04371961937358</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.043296219267012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042038847057868</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023415263994458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023412438097706</v>
+        <v>1.02188520000816</v>
       </c>
       <c r="D3">
-        <v>1.037634557444382</v>
+        <v>1.035485820114934</v>
       </c>
       <c r="E3">
-        <v>1.030981609272209</v>
+        <v>1.029462182669167</v>
       </c>
       <c r="F3">
-        <v>1.037097833003722</v>
+        <v>1.03633576701181</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.056644634952243</v>
+        <v>1.055459050182582</v>
       </c>
       <c r="J3">
-        <v>1.043284585115568</v>
+        <v>1.041796525482781</v>
       </c>
       <c r="K3">
-        <v>1.04780751921927</v>
+        <v>1.045683926739822</v>
       </c>
       <c r="L3">
-        <v>1.041232846233232</v>
+        <v>1.039731472316038</v>
       </c>
       <c r="M3">
-        <v>1.047277063532825</v>
+        <v>1.046523912006789</v>
       </c>
       <c r="N3">
-        <v>1.017444278623194</v>
+        <v>1.017766459791769</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045988994511884</v>
+        <v>1.045392929828731</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.044871668617978</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043378565569504</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023845847122114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026242226672217</v>
+        <v>1.024522361215527</v>
       </c>
       <c r="D4">
-        <v>1.039575987325982</v>
+        <v>1.037216884833808</v>
       </c>
       <c r="E4">
-        <v>1.033509569016671</v>
+        <v>1.031797373608436</v>
       </c>
       <c r="F4">
-        <v>1.039061533804381</v>
+        <v>1.03820892298355</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.057577961954453</v>
+        <v>1.056264755653042</v>
       </c>
       <c r="J4">
-        <v>1.044997668139073</v>
+        <v>1.043318923949087</v>
       </c>
       <c r="K4">
-        <v>1.049219123241377</v>
+        <v>1.046885962897367</v>
       </c>
       <c r="L4">
-        <v>1.043219709349852</v>
+        <v>1.041526600817243</v>
       </c>
       <c r="M4">
-        <v>1.048710314631332</v>
+        <v>1.04786707433406</v>
       </c>
       <c r="N4">
-        <v>1.018077681968484</v>
+        <v>1.018201553699076</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047123307233604</v>
+        <v>1.046455944833155</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045870669982662</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044229468581223</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024115962172562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027424282944166</v>
+        <v>1.025624048362413</v>
       </c>
       <c r="D5">
-        <v>1.040390240989952</v>
+        <v>1.037943338269256</v>
       </c>
       <c r="E5">
-        <v>1.034567319269199</v>
+        <v>1.032774633435789</v>
       </c>
       <c r="F5">
-        <v>1.039882463642151</v>
+        <v>1.038992090854632</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.057967416898788</v>
+        <v>1.056600867663593</v>
       </c>
       <c r="J5">
-        <v>1.045714628126914</v>
+        <v>1.043956145006888</v>
       </c>
       <c r="K5">
-        <v>1.049811447723801</v>
+        <v>1.047390736434405</v>
       </c>
       <c r="L5">
-        <v>1.04405110344247</v>
+        <v>1.042277857422072</v>
       </c>
       <c r="M5">
-        <v>1.049309093167398</v>
+        <v>1.048428244760125</v>
       </c>
       <c r="N5">
-        <v>1.018344348954042</v>
+        <v>1.018384746211052</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.047597195843476</v>
+        <v>1.046900069835824</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046296597812804</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.044594206190304</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024229826924791</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027629189356516</v>
+        <v>1.025814368194885</v>
       </c>
       <c r="D6">
-        <v>1.040534420334086</v>
+        <v>1.038071865889262</v>
       </c>
       <c r="E6">
-        <v>1.034751474610412</v>
+        <v>1.032944182838015</v>
       </c>
       <c r="F6">
-        <v>1.040023259194982</v>
+        <v>1.039126051344338</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.0580371581442</v>
+        <v>1.056661033157719</v>
       </c>
       <c r="J6">
-        <v>1.045841535892085</v>
+        <v>1.044068586847005</v>
       </c>
       <c r="K6">
-        <v>1.049918330352732</v>
+        <v>1.047482013965252</v>
       </c>
       <c r="L6">
-        <v>1.044197243151664</v>
+        <v>1.042409457644363</v>
       </c>
       <c r="M6">
-        <v>1.049412603031407</v>
+        <v>1.048524948633092</v>
       </c>
       <c r="N6">
-        <v>1.018393655052855</v>
+        <v>1.018418394957898</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.047679116159868</v>
+        <v>1.046976603791788</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046380842046226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044668290153179</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024251634183178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0262776036833</v>
+        <v>1.02456428613665</v>
       </c>
       <c r="D7">
-        <v>1.039608358636104</v>
+        <v>1.037253706325043</v>
       </c>
       <c r="E7">
-        <v>1.033543188283214</v>
+        <v>1.031837504490028</v>
       </c>
       <c r="F7">
-        <v>1.039081691597076</v>
+        <v>1.038232070487227</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.057596005605366</v>
+        <v>1.056286155203644</v>
       </c>
       <c r="J7">
-        <v>1.045026347325116</v>
+        <v>1.043353975455892</v>
       </c>
       <c r="K7">
-        <v>1.0492482904808</v>
+        <v>1.046919520647518</v>
       </c>
       <c r="L7">
-        <v>1.043250083223254</v>
+        <v>1.041563405710949</v>
       </c>
       <c r="M7">
-        <v>1.048727400087119</v>
+        <v>1.047887113058286</v>
       </c>
       <c r="N7">
-        <v>1.018094132197107</v>
+        <v>1.018242708902865</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047136829103422</v>
+        <v>1.046471804010017</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045911240527282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044275152847742</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024128562994322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.02049473511118</v>
+        <v>1.01919950314597</v>
       </c>
       <c r="D8">
-        <v>1.035645768643489</v>
+        <v>1.033739738602948</v>
       </c>
       <c r="E8">
-        <v>1.028381761801973</v>
+        <v>1.027094062856531</v>
       </c>
       <c r="F8">
-        <v>1.035074522734955</v>
+        <v>1.03442118167767</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055682260090746</v>
+        <v>1.054646123419487</v>
       </c>
       <c r="J8">
-        <v>1.041524683781506</v>
+        <v>1.040265058352517</v>
       </c>
       <c r="K8">
-        <v>1.046363609156983</v>
+        <v>1.044481284565953</v>
       </c>
       <c r="L8">
-        <v>1.039190532646198</v>
+        <v>1.03791912054779</v>
       </c>
       <c r="M8">
-        <v>1.045799456467881</v>
+        <v>1.045154239978596</v>
       </c>
       <c r="N8">
-        <v>1.016800724357083</v>
+        <v>1.017417532296623</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.044819575476467</v>
+        <v>1.044308932743777</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043876105877727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042556151848159</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023583264257167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009801987350445</v>
+        <v>1.009271685445413</v>
       </c>
       <c r="D9">
-        <v>1.028336681848089</v>
+        <v>1.027250845885882</v>
       </c>
       <c r="E9">
-        <v>1.018876199480925</v>
+        <v>1.018350425432054</v>
       </c>
       <c r="F9">
-        <v>1.027743125799322</v>
+        <v>1.027449264104908</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052058179526486</v>
+        <v>1.051519151467869</v>
       </c>
       <c r="J9">
-        <v>1.035013297795892</v>
+        <v>1.034501231927016</v>
       </c>
       <c r="K9">
-        <v>1.040986156963202</v>
+        <v>1.039916744815101</v>
       </c>
       <c r="L9">
-        <v>1.031670271139121</v>
+        <v>1.03115263381627</v>
       </c>
       <c r="M9">
-        <v>1.04040157326945</v>
+        <v>1.040112158556498</v>
       </c>
       <c r="N9">
-        <v>1.01438088585263</v>
+        <v>1.015777077927566</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040547525716439</v>
+        <v>1.040318473354535</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04007076520804</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039325319041424</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022531794938661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.002449351709833</v>
+        <v>1.0024989387424</v>
       </c>
       <c r="D10">
-        <v>1.023352805149657</v>
+        <v>1.022870118746771</v>
       </c>
       <c r="E10">
-        <v>1.012383172798847</v>
+        <v>1.012432234421575</v>
       </c>
       <c r="F10">
-        <v>1.022912817426192</v>
+        <v>1.022891295510898</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049557087144872</v>
+        <v>1.049385758565836</v>
       </c>
       <c r="J10">
-        <v>1.030566126202714</v>
+        <v>1.030613759557671</v>
       </c>
       <c r="K10">
-        <v>1.037312841516826</v>
+        <v>1.036838369146402</v>
       </c>
       <c r="L10">
-        <v>1.026532387679413</v>
+        <v>1.026580591380893</v>
       </c>
       <c r="M10">
-        <v>1.036880340804825</v>
+        <v>1.03685918532864</v>
       </c>
       <c r="N10">
-        <v>1.012757160429315</v>
+        <v>1.014808983803871</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037812181085165</v>
+        <v>1.037795438926741</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037490262954832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.03716716306377</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02183282008096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000150126927007</v>
+        <v>1.000343249020175</v>
       </c>
       <c r="D11">
-        <v>1.021932930723645</v>
+        <v>1.021606233576826</v>
       </c>
       <c r="E11">
-        <v>1.010463090904898</v>
+        <v>1.010653990768761</v>
       </c>
       <c r="F11">
-        <v>1.022690056283768</v>
+        <v>1.0227375424298</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049061250788555</v>
+        <v>1.048984692049605</v>
       </c>
       <c r="J11">
-        <v>1.029516661776925</v>
+        <v>1.029701755400304</v>
       </c>
       <c r="K11">
-        <v>1.036452747540317</v>
+        <v>1.036131875328109</v>
       </c>
       <c r="L11">
-        <v>1.025190349843224</v>
+        <v>1.025377746930384</v>
       </c>
       <c r="M11">
-        <v>1.037196392294225</v>
+        <v>1.037243033801076</v>
       </c>
       <c r="N11">
-        <v>1.012627632779881</v>
+        <v>1.014941366875018</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038498497449126</v>
+        <v>1.038535390321184</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036914897244304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.036703611309376</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021792422386204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9996017005573473</v>
+        <v>0.9997849942775235</v>
       </c>
       <c r="D12">
-        <v>1.021650352318082</v>
+        <v>1.021324576486617</v>
       </c>
       <c r="E12">
-        <v>1.010054124135079</v>
+        <v>1.010235247755747</v>
       </c>
       <c r="F12">
-        <v>1.023249452819671</v>
+        <v>1.02329388675599</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049073711369693</v>
+        <v>1.048996140484703</v>
       </c>
       <c r="J12">
-        <v>1.029422926701911</v>
+        <v>1.029598456319995</v>
       </c>
       <c r="K12">
-        <v>1.03637419702536</v>
+        <v>1.036054325710861</v>
       </c>
       <c r="L12">
-        <v>1.024991205072102</v>
+        <v>1.025168949005732</v>
       </c>
       <c r="M12">
-        <v>1.037944385540414</v>
+        <v>1.037988017781588</v>
       </c>
       <c r="N12">
-        <v>1.012788211993377</v>
+        <v>1.01512832704959</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039416324628854</v>
+        <v>1.039450825539886</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.036859359763491</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.036648782603861</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02185719377112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000389391630717</v>
+        <v>1.00042535378362</v>
       </c>
       <c r="D13">
-        <v>1.022250003282901</v>
+        <v>1.021791747631031</v>
       </c>
       <c r="E13">
-        <v>1.010803938431005</v>
+        <v>1.010839478475953</v>
       </c>
       <c r="F13">
-        <v>1.024478568081368</v>
+        <v>1.024456233073642</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049498940401198</v>
+        <v>1.049336769949575</v>
       </c>
       <c r="J13">
-        <v>1.030084720051772</v>
+        <v>1.030119167547509</v>
       </c>
       <c r="K13">
-        <v>1.036920346228358</v>
+        <v>1.036470357252127</v>
       </c>
       <c r="L13">
-        <v>1.025683689449392</v>
+        <v>1.025718569709278</v>
       </c>
       <c r="M13">
-        <v>1.039108845925415</v>
+        <v>1.039086911332778</v>
       </c>
       <c r="N13">
-        <v>1.013199692666055</v>
+        <v>1.015342409748241</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040613422190839</v>
+        <v>1.040596082402138</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.037243017606877</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.036940195299935</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022015059680864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.00153698834102</v>
+        <v>1.001411254366583</v>
       </c>
       <c r="D14">
-        <v>1.023063415539253</v>
+        <v>1.022455581484978</v>
       </c>
       <c r="E14">
-        <v>1.01184496668081</v>
+        <v>1.011720674972861</v>
       </c>
       <c r="F14">
-        <v>1.025626537162897</v>
+        <v>1.025530509685125</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049977537666331</v>
+        <v>1.049720491644992</v>
       </c>
       <c r="J14">
-        <v>1.030881529182259</v>
+        <v>1.030761011461163</v>
       </c>
       <c r="K14">
-        <v>1.037579529771925</v>
+        <v>1.036982520146198</v>
       </c>
       <c r="L14">
-        <v>1.026563589346211</v>
+        <v>1.02644157403137</v>
       </c>
       <c r="M14">
-        <v>1.040097189845895</v>
+        <v>1.040002860273094</v>
       </c>
       <c r="N14">
-        <v>1.013597495156906</v>
+        <v>1.015505464991874</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041567793249044</v>
+        <v>1.041493233623878</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.0377104996672</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.03730386086611</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022167794379505</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.002123092655557</v>
+        <v>1.001927154344322</v>
       </c>
       <c r="D15">
-        <v>1.023468958145904</v>
+        <v>1.022794782222894</v>
       </c>
       <c r="E15">
-        <v>1.012367216675063</v>
+        <v>1.012173495049915</v>
       </c>
       <c r="F15">
-        <v>1.026087993867411</v>
+        <v>1.025959781589644</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050196168547708</v>
+        <v>1.049897259925135</v>
       </c>
       <c r="J15">
-        <v>1.031257258414417</v>
+        <v>1.031069375571615</v>
       </c>
       <c r="K15">
-        <v>1.037891905029186</v>
+        <v>1.037229641837899</v>
       </c>
       <c r="L15">
-        <v>1.026988960740708</v>
+        <v>1.026798758424924</v>
       </c>
       <c r="M15">
-        <v>1.040464854680174</v>
+        <v>1.040338891402412</v>
       </c>
       <c r="N15">
-        <v>1.013758065388141</v>
+        <v>1.015561025645983</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041895882734831</v>
+        <v>1.041796321922176</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.037937208719684</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.037485001764697</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022231256075285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.005079571326831</v>
+        <v>1.004597873380523</v>
       </c>
       <c r="D16">
-        <v>1.025460050721503</v>
+        <v>1.024504745899484</v>
       </c>
       <c r="E16">
-        <v>1.014962575182906</v>
+        <v>1.014485903595091</v>
       </c>
       <c r="F16">
-        <v>1.027940815635492</v>
+        <v>1.027680099139762</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.051186653954994</v>
+        <v>1.050712355587766</v>
       </c>
       <c r="J16">
-        <v>1.033016948985665</v>
+        <v>1.032554043090765</v>
       </c>
       <c r="K16">
-        <v>1.0393489700752</v>
+        <v>1.038409798259267</v>
       </c>
       <c r="L16">
-        <v>1.029030930382599</v>
+        <v>1.028562520713274</v>
       </c>
       <c r="M16">
-        <v>1.041788020822391</v>
+        <v>1.041531676076827</v>
       </c>
       <c r="N16">
-        <v>1.014366492392629</v>
+        <v>1.01574287215106</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04290305433854</v>
+        <v>1.042700434790957</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.03897054878917</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.038322854328783</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022482537516151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.006755013244365</v>
+        <v>1.006148793130423</v>
       </c>
       <c r="D17">
-        <v>1.026569317802826</v>
+        <v>1.025483454640743</v>
       </c>
       <c r="E17">
-        <v>1.016417866903367</v>
+        <v>1.015817652457952</v>
       </c>
       <c r="F17">
-        <v>1.028761436268702</v>
+        <v>1.028441938544434</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05169810741084</v>
+        <v>1.051143871561523</v>
       </c>
       <c r="J17">
-        <v>1.033956058538465</v>
+        <v>1.033372715837555</v>
       </c>
       <c r="K17">
-        <v>1.040126994021763</v>
+        <v>1.039058948104049</v>
       </c>
       <c r="L17">
-        <v>1.030144027475491</v>
+        <v>1.029553910810189</v>
       </c>
       <c r="M17">
-        <v>1.042283290657418</v>
+        <v>1.041969001691269</v>
       </c>
       <c r="N17">
-        <v>1.014628043418911</v>
+        <v>1.015828978221093</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043165709142089</v>
+        <v>1.042917264755605</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.039523210226368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.038784643497216</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022598396230887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00743767804844</v>
+        <v>1.00682659937434</v>
       </c>
       <c r="D18">
-        <v>1.026976273969688</v>
+        <v>1.025873041467357</v>
       </c>
       <c r="E18">
-        <v>1.01697648509151</v>
+        <v>1.016371282193699</v>
       </c>
       <c r="F18">
-        <v>1.028649657475662</v>
+        <v>1.028325899699369</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051808065230771</v>
+        <v>1.051245283988645</v>
       </c>
       <c r="J18">
-        <v>1.03422261396627</v>
+        <v>1.033634163810391</v>
       </c>
       <c r="K18">
-        <v>1.040345059944703</v>
+        <v>1.03925963290703</v>
       </c>
       <c r="L18">
-        <v>1.030508478100638</v>
+        <v>1.029913285404686</v>
       </c>
       <c r="M18">
-        <v>1.041991529619346</v>
+        <v>1.041672970228616</v>
       </c>
       <c r="N18">
-        <v>1.014584781479739</v>
+        <v>1.015779436435945</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042697783457094</v>
+        <v>1.042445911040143</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.039665803325699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.03891380954421</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.0225882126915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.007213785689969</v>
+        <v>1.006695870970778</v>
       </c>
       <c r="D19">
-        <v>1.026748911797898</v>
+        <v>1.025723998972935</v>
       </c>
       <c r="E19">
-        <v>1.016714858589417</v>
+        <v>1.016201881735663</v>
       </c>
       <c r="F19">
-        <v>1.027639294049411</v>
+        <v>1.027356327561321</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.05154976993853</v>
+        <v>1.051038090310081</v>
       </c>
       <c r="J19">
-        <v>1.033873956905494</v>
+        <v>1.033375118301563</v>
       </c>
       <c r="K19">
-        <v>1.040059206812384</v>
+        <v>1.039050755027158</v>
       </c>
       <c r="L19">
-        <v>1.030188146354923</v>
+        <v>1.029683613529866</v>
       </c>
       <c r="M19">
-        <v>1.040935322882985</v>
+        <v>1.040656886798057</v>
       </c>
       <c r="N19">
-        <v>1.014278810695907</v>
+        <v>1.015592408851824</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041537602260729</v>
+        <v>1.041317382074989</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.039470065577367</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.038773122102632</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022467222659219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.004416284963478</v>
+        <v>1.004271108117029</v>
       </c>
       <c r="D20">
-        <v>1.024705513699347</v>
+        <v>1.024031308815149</v>
       </c>
       <c r="E20">
-        <v>1.01412418277889</v>
+        <v>1.013980464669223</v>
       </c>
       <c r="F20">
-        <v>1.02419835768387</v>
+        <v>1.024085855290586</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.05024718984002</v>
+        <v>1.049956500680202</v>
       </c>
       <c r="J20">
-        <v>1.031778021340234</v>
+        <v>1.031638372783575</v>
       </c>
       <c r="K20">
-        <v>1.038327425199323</v>
+        <v>1.037664360593203</v>
       </c>
       <c r="L20">
-        <v>1.027923140297717</v>
+        <v>1.027781859698807</v>
       </c>
       <c r="M20">
-        <v>1.03782864745761</v>
+        <v>1.037718005063719</v>
       </c>
       <c r="N20">
-        <v>1.013219115251202</v>
+        <v>1.015002163431393</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03855210902986</v>
+        <v>1.03846454709366</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.038249554511451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03779720619364</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022026129553935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9986846503748293</v>
+        <v>0.9991745214120337</v>
       </c>
       <c r="D21">
-        <v>1.020800637119418</v>
+        <v>1.020739538870178</v>
       </c>
       <c r="E21">
-        <v>1.009053111337139</v>
+        <v>1.009537269943813</v>
       </c>
       <c r="F21">
-        <v>1.020202078712072</v>
+        <v>1.020386095106825</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048221137603469</v>
+        <v>1.048315042882219</v>
       </c>
       <c r="J21">
-        <v>1.028237468941991</v>
+        <v>1.028706796134855</v>
       </c>
       <c r="K21">
-        <v>1.035398367454041</v>
+        <v>1.035338366338768</v>
       </c>
       <c r="L21">
-        <v>1.023864975882999</v>
+        <v>1.024340180879784</v>
       </c>
       <c r="M21">
-        <v>1.034810564646666</v>
+        <v>1.034991272673308</v>
       </c>
       <c r="N21">
-        <v>1.011877301020277</v>
+        <v>1.014606058108391</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036122603896396</v>
+        <v>1.036265623044473</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036181845878208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.036156219525517</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021499306388164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9950321986759431</v>
+        <v>0.9959280382760906</v>
       </c>
       <c r="D22">
-        <v>1.018318061643831</v>
+        <v>1.018648614581265</v>
       </c>
       <c r="E22">
-        <v>1.005832757909122</v>
+        <v>1.006717188040973</v>
       </c>
       <c r="F22">
-        <v>1.017753819788314</v>
+        <v>1.01812771517031</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046932471209901</v>
+        <v>1.047271365039678</v>
       </c>
       <c r="J22">
-        <v>1.025991992673543</v>
+        <v>1.026848000020288</v>
       </c>
       <c r="K22">
-        <v>1.033535163736518</v>
+        <v>1.033859475231193</v>
       </c>
       <c r="L22">
-        <v>1.021289545565462</v>
+        <v>1.022156740351191</v>
       </c>
       <c r="M22">
-        <v>1.032981588039823</v>
+        <v>1.033348413754978</v>
       </c>
       <c r="N22">
-        <v>1.011032570412684</v>
+        <v>1.014355567340936</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034675081200529</v>
+        <v>1.034965401470683</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034851007752755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035095816738327</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021166498582612</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9969563919873433</v>
+        <v>0.9976214764336038</v>
       </c>
       <c r="D23">
-        <v>1.019617907268743</v>
+        <v>1.019728534665412</v>
       </c>
       <c r="E23">
-        <v>1.007526448702492</v>
+        <v>1.008183444731285</v>
       </c>
       <c r="F23">
-        <v>1.019046588334247</v>
+        <v>1.019312568155739</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I23">
-        <v>1.047606615153433</v>
+        <v>1.04780719144532</v>
       </c>
       <c r="J23">
-        <v>1.027168169681875</v>
+        <v>1.027804577387103</v>
       </c>
       <c r="K23">
-        <v>1.034506444337551</v>
+        <v>1.034615037258134</v>
       </c>
       <c r="L23">
-        <v>1.022640873225934</v>
+        <v>1.023285413558484</v>
       </c>
       <c r="M23">
-        <v>1.033945641317828</v>
+        <v>1.034206723502189</v>
       </c>
       <c r="N23">
-        <v>1.011468338615681</v>
+        <v>1.014432158287024</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035438070551949</v>
+        <v>1.035644701030242</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035528118685837</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.03561946329463</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02132944184987</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.004385248870279</v>
+        <v>1.004256072500488</v>
       </c>
       <c r="D24">
-        <v>1.024660568010484</v>
+        <v>1.023999399605857</v>
       </c>
       <c r="E24">
-        <v>1.014083611034114</v>
+        <v>1.01395572990631</v>
       </c>
       <c r="F24">
-        <v>1.024056647890297</v>
+        <v>1.023951310709093</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.050199170255212</v>
+        <v>1.049917158558228</v>
       </c>
       <c r="J24">
-        <v>1.031715531000574</v>
+        <v>1.03159126704453</v>
       </c>
       <c r="K24">
-        <v>1.038268027706012</v>
+        <v>1.037617771236392</v>
       </c>
       <c r="L24">
-        <v>1.02786783576042</v>
+        <v>1.027742120937337</v>
       </c>
       <c r="M24">
-        <v>1.03767407397712</v>
+        <v>1.037570476707075</v>
       </c>
       <c r="N24">
-        <v>1.013163436647523</v>
+        <v>1.01496569562231</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03838888980215</v>
+        <v>1.038306899263141</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.038180239926014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.037734276553648</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021999832213585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012658426995196</v>
+        <v>1.011903272371352</v>
       </c>
       <c r="D25">
-        <v>1.030297985310134</v>
+        <v>1.028977880806528</v>
       </c>
       <c r="E25">
-        <v>1.021413812884533</v>
+        <v>1.020664542579426</v>
       </c>
       <c r="F25">
-        <v>1.029685770518432</v>
+        <v>1.029286481161934</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05304477273893</v>
+        <v>1.052362534276109</v>
       </c>
       <c r="J25">
-        <v>1.036767167271538</v>
+        <v>1.036036578633876</v>
       </c>
       <c r="K25">
-        <v>1.04244349019006</v>
+        <v>1.041142410832723</v>
       </c>
       <c r="L25">
-        <v>1.033688558980079</v>
+        <v>1.032950319230348</v>
       </c>
       <c r="M25">
-        <v>1.04184009086093</v>
+        <v>1.041446558149002</v>
       </c>
       <c r="N25">
-        <v>1.015043604386268</v>
+        <v>1.016187651618053</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041686014967514</v>
+        <v>1.041374560655968</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.041129627931216</v>
+        <v>1.040223184435988</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022819883222869</v>
       </c>
     </row>
   </sheetData>
